--- a/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.889093104372535</v>
+        <v>3.889093104372421</v>
       </c>
       <c r="C2">
-        <v>0.4547581169318278</v>
+        <v>0.4547581169314014</v>
       </c>
       <c r="D2">
-        <v>0.3281698740537706</v>
+        <v>0.328169874053998</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.617036825720106</v>
+        <v>6.617036825720078</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.309454727476577</v>
+        <v>3.309454727476805</v>
       </c>
       <c r="C3">
-        <v>0.3898765119446068</v>
+        <v>0.3898765119449763</v>
       </c>
       <c r="D3">
-        <v>0.2860249614326307</v>
+        <v>0.2860249614324459</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.730178475001594</v>
+        <v>5.730178475001509</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.57565651195678</v>
+        <v>1.575656511956765</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.96571791805485</v>
+        <v>2.965717918054793</v>
       </c>
       <c r="C4">
-        <v>0.3511811974362615</v>
+        <v>0.3511811974359489</v>
       </c>
       <c r="D4">
-        <v>0.261122694311652</v>
+        <v>0.2611226943116804</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.406344720435598</v>
+        <v>1.406344720435584</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>2.828166433051877</v>
       </c>
       <c r="C5">
-        <v>0.3356444811277726</v>
+        <v>0.3356444811279999</v>
       </c>
       <c r="D5">
-        <v>0.2511767545680641</v>
+        <v>0.251176754567922</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.994415720517537</v>
+        <v>4.994415720517452</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.338935827193097</v>
+        <v>1.33893582719314</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.80546447714994</v>
+        <v>2.805464477150053</v>
       </c>
       <c r="C6">
-        <v>0.3330771661315168</v>
+        <v>0.3330771661315595</v>
       </c>
       <c r="D6">
-        <v>0.2495362926992613</v>
+        <v>0.2495362926992897</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.327828938590201</v>
+        <v>1.327828938590173</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.963853277525402</v>
+        <v>2.963853277525516</v>
       </c>
       <c r="C7">
-        <v>0.3509707919018297</v>
+        <v>0.350970791902057</v>
       </c>
       <c r="D7">
-        <v>0.2609877946946995</v>
+        <v>0.2609877946946568</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.201767847542641</v>
+        <v>5.201767847542726</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.405429633837429</v>
+        <v>1.405429633837386</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.686359467804209</v>
+        <v>3.68635946780438</v>
       </c>
       <c r="C8">
-        <v>0.4321138274901273</v>
+        <v>0.4321138274904683</v>
       </c>
       <c r="D8">
-        <v>0.3134077806404321</v>
+        <v>0.3134077806405884</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.306786789698066</v>
+        <v>6.306786789698208</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.76276475168558</v>
+        <v>1.762764751685594</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.229486658286476</v>
+        <v>5.229486658286532</v>
       </c>
       <c r="C9">
-        <v>0.6033428707131065</v>
+        <v>0.6033428707130781</v>
       </c>
       <c r="D9">
-        <v>0.4263283854556761</v>
+        <v>0.426328385455605</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.668525661805631</v>
+        <v>8.668525661805717</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.546170189593141</v>
+        <v>2.546170189593113</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.494304529319265</v>
+        <v>6.494304529319322</v>
       </c>
       <c r="C10">
         <v>0.7419540071642814</v>
       </c>
       <c r="D10">
-        <v>0.5197719678604074</v>
+        <v>0.5197719678604642</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.211794936004779</v>
+        <v>3.211794936004807</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.115686983944329</v>
+        <v>7.115686983944272</v>
       </c>
       <c r="C11">
-        <v>0.8095000572185711</v>
+        <v>0.8095000572185143</v>
       </c>
       <c r="D11">
-        <v>0.5659418232661722</v>
+        <v>0.5659418232667974</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.54951543730425</v>
+        <v>11.54951543730448</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.359720171615209</v>
+        <v>7.359720171615038</v>
       </c>
       <c r="C12">
-        <v>0.835923657841704</v>
+        <v>0.8359236578412776</v>
       </c>
       <c r="D12">
-        <v>0.5841178737629775</v>
+        <v>0.5841178737621533</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.92123530396969</v>
+        <v>11.92123530396947</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.306733040816141</v>
+        <v>7.306733040815914</v>
       </c>
       <c r="C13">
         <v>0.8301913755416592</v>
       </c>
       <c r="D13">
-        <v>0.5801692480054896</v>
+        <v>0.5801692480056033</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.84054905053483</v>
+        <v>11.84054905053506</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.652290821791212</v>
+        <v>3.65229082179124</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>7.135573966275672</v>
       </c>
       <c r="C14">
-        <v>0.811655624136904</v>
+        <v>0.8116556241369324</v>
       </c>
       <c r="D14">
-        <v>0.5674221370599355</v>
+        <v>0.5674221370599923</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.57981904318194</v>
+        <v>11.57981904318189</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.558574478942532</v>
+        <v>3.55857447894256</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>7.031946398031494</v>
       </c>
       <c r="C15">
-        <v>0.8004190528465926</v>
+        <v>0.8004190528465074</v>
       </c>
       <c r="D15">
-        <v>0.5597102671744665</v>
+        <v>0.5597102671744096</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.42189152861846</v>
+        <v>11.42189152861863</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.502077399940077</v>
+        <v>3.502077399940049</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.454786117192668</v>
+        <v>6.454786117192612</v>
       </c>
       <c r="C16">
-        <v>0.73764576338084</v>
+        <v>0.737645763381181</v>
       </c>
       <c r="D16">
-        <v>0.5168412883247413</v>
+        <v>0.5168412883246845</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.54143567711503</v>
+        <v>10.54143567711526</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.190640227068613</v>
+        <v>3.190640227068656</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.113792764320635</v>
+        <v>6.113792764320692</v>
       </c>
       <c r="C17">
         <v>0.7004103511671076</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10.02064719527456</v>
+        <v>10.02064719527453</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.009096458378636</v>
+        <v>3.009096458378735</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>5.92183373979077</v>
       </c>
       <c r="C18">
-        <v>0.679401406029541</v>
+        <v>0.679401406029001</v>
       </c>
       <c r="D18">
-        <v>0.477385918531354</v>
+        <v>0.4773859185314961</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.72730802568131</v>
+        <v>9.727308025681509</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.907663115738544</v>
+        <v>2.907663115738586</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>5.857502824172911</v>
       </c>
       <c r="C19">
-        <v>0.6723530667173918</v>
+        <v>0.6723530667159707</v>
       </c>
       <c r="D19">
-        <v>0.4726321793152977</v>
+        <v>0.4726321793156103</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.62897771676478</v>
+        <v>9.628977716765093</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.873790135743221</v>
+        <v>2.873790135743178</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.149647311007186</v>
+        <v>6.149647311006959</v>
       </c>
       <c r="C20">
-        <v>0.7043306581256559</v>
+        <v>0.7043306581247464</v>
       </c>
       <c r="D20">
-        <v>0.4942356006526154</v>
+        <v>0.4942356006524733</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10.07542518468196</v>
+        <v>10.07542518468193</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.028102699616596</v>
+        <v>3.028102699616525</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.185589987406502</v>
+        <v>7.185589987406956</v>
       </c>
       <c r="C21">
-        <v>0.8170751651607873</v>
+        <v>0.8170751651616115</v>
       </c>
       <c r="D21">
-        <v>0.5711458608124929</v>
+        <v>0.5711458608128623</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.915131241350196</v>
+        <v>7.91513124135048</v>
       </c>
       <c r="C22">
-        <v>0.8958336181719062</v>
+        <v>0.8958336181710251</v>
       </c>
       <c r="D22">
-        <v>0.6255736149524296</v>
+        <v>0.6255736149522875</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.76605978349102</v>
+        <v>12.76605978349085</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.520040170558104</v>
+        <v>7.520040170558161</v>
       </c>
       <c r="C23">
-        <v>0.8532499922698946</v>
+        <v>0.8532499922698378</v>
       </c>
       <c r="D23">
-        <v>0.5960717995886284</v>
+        <v>0.5960717995886</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>12.16527262559282</v>
+        <v>12.16527262559288</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.769801229522983</v>
+        <v>3.769801229522969</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.133424902281149</v>
+        <v>6.133424902281092</v>
       </c>
       <c r="C24">
-        <v>0.7025570611953924</v>
+        <v>0.7025570611944829</v>
       </c>
       <c r="D24">
-        <v>0.4930349634718425</v>
+        <v>0.4930349634716436</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.019500943920903</v>
+        <v>3.019500943920917</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.79373381338462</v>
+        <v>4.793733813384449</v>
       </c>
       <c r="C25">
-        <v>0.5552400165538245</v>
+        <v>0.5552400165530003</v>
       </c>
       <c r="D25">
-        <v>0.3943145925809404</v>
+        <v>0.394314592580514</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.001704019273376</v>
+        <v>8.001704019273262</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.889093104372421</v>
+        <v>3.889093104372535</v>
       </c>
       <c r="C2">
-        <v>0.4547581169314014</v>
+        <v>0.4547581169318278</v>
       </c>
       <c r="D2">
-        <v>0.328169874053998</v>
+        <v>0.3281698740537706</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.617036825720078</v>
+        <v>6.617036825720106</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.309454727476805</v>
+        <v>3.309454727476577</v>
       </c>
       <c r="C3">
-        <v>0.3898765119449763</v>
+        <v>0.3898765119446068</v>
       </c>
       <c r="D3">
-        <v>0.2860249614324459</v>
+        <v>0.2860249614326307</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.730178475001509</v>
+        <v>5.730178475001594</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.575656511956765</v>
+        <v>1.57565651195678</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.965717918054793</v>
+        <v>2.96571791805485</v>
       </c>
       <c r="C4">
-        <v>0.3511811974359489</v>
+        <v>0.3511811974362615</v>
       </c>
       <c r="D4">
-        <v>0.2611226943116804</v>
+        <v>0.261122694311652</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.406344720435584</v>
+        <v>1.406344720435598</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>2.828166433051877</v>
       </c>
       <c r="C5">
-        <v>0.3356444811279999</v>
+        <v>0.3356444811277726</v>
       </c>
       <c r="D5">
-        <v>0.251176754567922</v>
+        <v>0.2511767545680641</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.994415720517452</v>
+        <v>4.994415720517537</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.33893582719314</v>
+        <v>1.338935827193097</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.805464477150053</v>
+        <v>2.80546447714994</v>
       </c>
       <c r="C6">
-        <v>0.3330771661315595</v>
+        <v>0.3330771661315168</v>
       </c>
       <c r="D6">
-        <v>0.2495362926992897</v>
+        <v>0.2495362926992613</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.327828938590173</v>
+        <v>1.327828938590201</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.963853277525516</v>
+        <v>2.963853277525402</v>
       </c>
       <c r="C7">
-        <v>0.350970791902057</v>
+        <v>0.3509707919018297</v>
       </c>
       <c r="D7">
-        <v>0.2609877946946568</v>
+        <v>0.2609877946946995</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.201767847542726</v>
+        <v>5.201767847542641</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.405429633837386</v>
+        <v>1.405429633837429</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.68635946780438</v>
+        <v>3.686359467804209</v>
       </c>
       <c r="C8">
-        <v>0.4321138274904683</v>
+        <v>0.4321138274901273</v>
       </c>
       <c r="D8">
-        <v>0.3134077806405884</v>
+        <v>0.3134077806404321</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.306786789698208</v>
+        <v>6.306786789698066</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.762764751685594</v>
+        <v>1.76276475168558</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.229486658286532</v>
+        <v>5.229486658286476</v>
       </c>
       <c r="C9">
-        <v>0.6033428707130781</v>
+        <v>0.6033428707131065</v>
       </c>
       <c r="D9">
-        <v>0.426328385455605</v>
+        <v>0.4263283854556761</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.668525661805717</v>
+        <v>8.668525661805631</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.546170189593113</v>
+        <v>2.546170189593141</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.494304529319322</v>
+        <v>6.494304529319265</v>
       </c>
       <c r="C10">
         <v>0.7419540071642814</v>
       </c>
       <c r="D10">
-        <v>0.5197719678604642</v>
+        <v>0.5197719678604074</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.211794936004807</v>
+        <v>3.211794936004779</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.115686983944272</v>
+        <v>7.115686983944329</v>
       </c>
       <c r="C11">
-        <v>0.8095000572185143</v>
+        <v>0.8095000572185711</v>
       </c>
       <c r="D11">
-        <v>0.5659418232667974</v>
+        <v>0.5659418232661722</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.54951543730448</v>
+        <v>11.54951543730425</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.359720171615038</v>
+        <v>7.359720171615209</v>
       </c>
       <c r="C12">
-        <v>0.8359236578412776</v>
+        <v>0.835923657841704</v>
       </c>
       <c r="D12">
-        <v>0.5841178737621533</v>
+        <v>0.5841178737629775</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.92123530396947</v>
+        <v>11.92123530396969</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.306733040815914</v>
+        <v>7.306733040816141</v>
       </c>
       <c r="C13">
         <v>0.8301913755416592</v>
       </c>
       <c r="D13">
-        <v>0.5801692480056033</v>
+        <v>0.5801692480054896</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.84054905053506</v>
+        <v>11.84054905053483</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.65229082179124</v>
+        <v>3.652290821791212</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>7.135573966275672</v>
       </c>
       <c r="C14">
-        <v>0.8116556241369324</v>
+        <v>0.811655624136904</v>
       </c>
       <c r="D14">
-        <v>0.5674221370599923</v>
+        <v>0.5674221370599355</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.57981904318189</v>
+        <v>11.57981904318194</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.55857447894256</v>
+        <v>3.558574478942532</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>7.031946398031494</v>
       </c>
       <c r="C15">
-        <v>0.8004190528465074</v>
+        <v>0.8004190528465926</v>
       </c>
       <c r="D15">
-        <v>0.5597102671744096</v>
+        <v>0.5597102671744665</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.42189152861863</v>
+        <v>11.42189152861846</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.502077399940049</v>
+        <v>3.502077399940077</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.454786117192612</v>
+        <v>6.454786117192668</v>
       </c>
       <c r="C16">
-        <v>0.737645763381181</v>
+        <v>0.73764576338084</v>
       </c>
       <c r="D16">
-        <v>0.5168412883246845</v>
+        <v>0.5168412883247413</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.54143567711526</v>
+        <v>10.54143567711503</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.190640227068656</v>
+        <v>3.190640227068613</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.113792764320692</v>
+        <v>6.113792764320635</v>
       </c>
       <c r="C17">
         <v>0.7004103511671076</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10.02064719527453</v>
+        <v>10.02064719527456</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.009096458378735</v>
+        <v>3.009096458378636</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>5.92183373979077</v>
       </c>
       <c r="C18">
-        <v>0.679401406029001</v>
+        <v>0.679401406029541</v>
       </c>
       <c r="D18">
-        <v>0.4773859185314961</v>
+        <v>0.477385918531354</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.727308025681509</v>
+        <v>9.72730802568131</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.907663115738586</v>
+        <v>2.907663115738544</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>5.857502824172911</v>
       </c>
       <c r="C19">
-        <v>0.6723530667159707</v>
+        <v>0.6723530667173918</v>
       </c>
       <c r="D19">
-        <v>0.4726321793156103</v>
+        <v>0.4726321793152977</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.628977716765093</v>
+        <v>9.62897771676478</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.873790135743178</v>
+        <v>2.873790135743221</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.149647311006959</v>
+        <v>6.149647311007186</v>
       </c>
       <c r="C20">
-        <v>0.7043306581247464</v>
+        <v>0.7043306581256559</v>
       </c>
       <c r="D20">
-        <v>0.4942356006524733</v>
+        <v>0.4942356006526154</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10.07542518468193</v>
+        <v>10.07542518468196</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.028102699616525</v>
+        <v>3.028102699616596</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.185589987406956</v>
+        <v>7.185589987406502</v>
       </c>
       <c r="C21">
-        <v>0.8170751651616115</v>
+        <v>0.8170751651607873</v>
       </c>
       <c r="D21">
-        <v>0.5711458608128623</v>
+        <v>0.5711458608124929</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.91513124135048</v>
+        <v>7.915131241350196</v>
       </c>
       <c r="C22">
-        <v>0.8958336181710251</v>
+        <v>0.8958336181719062</v>
       </c>
       <c r="D22">
-        <v>0.6255736149522875</v>
+        <v>0.6255736149524296</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.76605978349085</v>
+        <v>12.76605978349102</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.520040170558161</v>
+        <v>7.520040170558104</v>
       </c>
       <c r="C23">
-        <v>0.8532499922698378</v>
+        <v>0.8532499922698946</v>
       </c>
       <c r="D23">
-        <v>0.5960717995886</v>
+        <v>0.5960717995886284</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>12.16527262559288</v>
+        <v>12.16527262559282</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.769801229522969</v>
+        <v>3.769801229522983</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.133424902281092</v>
+        <v>6.133424902281149</v>
       </c>
       <c r="C24">
-        <v>0.7025570611944829</v>
+        <v>0.7025570611953924</v>
       </c>
       <c r="D24">
-        <v>0.4930349634716436</v>
+        <v>0.4930349634718425</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.019500943920917</v>
+        <v>3.019500943920903</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.793733813384449</v>
+        <v>4.79373381338462</v>
       </c>
       <c r="C25">
-        <v>0.5552400165530003</v>
+        <v>0.5552400165538245</v>
       </c>
       <c r="D25">
-        <v>0.394314592580514</v>
+        <v>0.3943145925809404</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.001704019273262</v>
+        <v>8.001704019273376</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.889093104372535</v>
+        <v>3.844896077069507</v>
       </c>
       <c r="C2">
-        <v>0.4547581169318278</v>
+        <v>0.4400696897928071</v>
       </c>
       <c r="D2">
-        <v>0.3281698740537706</v>
+        <v>0.3306180827536451</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.617036825720106</v>
+        <v>6.612503518773195</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007508097272936887</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,33 +442,36 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.864062378259035</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.853973739992043</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.309454727476577</v>
+        <v>3.272754632700469</v>
       </c>
       <c r="C3">
-        <v>0.3898765119446068</v>
+        <v>0.3765649527162225</v>
       </c>
       <c r="D3">
-        <v>0.2860249614326307</v>
+        <v>0.2889322159731478</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.730178475001594</v>
+        <v>5.734175930777582</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007641406877354789</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,33 +483,36 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.57565651195678</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.567457699681569</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.96571791805485</v>
+        <v>2.93349910054593</v>
       </c>
       <c r="C4">
-        <v>0.3511811974362615</v>
+        <v>0.3387101368006142</v>
       </c>
       <c r="D4">
-        <v>0.261122694311652</v>
+        <v>0.2642955902178556</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.204617797224415</v>
+        <v>5.213610142172456</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007724003784158328</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,33 +524,36 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.406344720435598</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.399194360839346</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.828166433051877</v>
+        <v>2.797753752167182</v>
       </c>
       <c r="C5">
-        <v>0.3356444811277726</v>
+        <v>0.3235159749298617</v>
       </c>
       <c r="D5">
-        <v>0.2511767545680641</v>
+        <v>0.2544547242520849</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.994415720517537</v>
+        <v>5.005397247138717</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007757921269315135</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,33 +565,36 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.338935827193097</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.332191013501102</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.80546447714994</v>
+        <v>2.77535076435646</v>
       </c>
       <c r="C6">
-        <v>0.3330771661315168</v>
+        <v>0.3210055764713218</v>
       </c>
       <c r="D6">
-        <v>0.2495362926992613</v>
+        <v>0.2528315408244168</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.959730221224135</v>
+        <v>4.971039632781583</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007763570746581729</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,33 +606,36 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.327828938590201</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.32115031356939</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.963853277525402</v>
+        <v>2.931658886817843</v>
       </c>
       <c r="C7">
-        <v>0.3509707919018297</v>
+        <v>0.3385043493776436</v>
       </c>
       <c r="D7">
-        <v>0.2609877946946995</v>
+        <v>0.2641621194688355</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.201767847542641</v>
+        <v>5.210787189226863</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007724460073818738</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,33 +647,36 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.405429633837429</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.398284824091775</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.686359467804209</v>
+        <v>3.644779835219765</v>
       </c>
       <c r="C8">
-        <v>0.4321138274901273</v>
+        <v>0.4179020122186046</v>
       </c>
       <c r="D8">
-        <v>0.3134077806404321</v>
+        <v>0.3160182386063042</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.306786789698066</v>
+        <v>6.305255301804209</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007553954565147215</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,33 +688,36 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.76276475168558</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.753355371176127</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.229486658286476</v>
+        <v>5.167893149670931</v>
       </c>
       <c r="C9">
-        <v>0.6033428707131065</v>
+        <v>0.5855949307525634</v>
       </c>
       <c r="D9">
-        <v>0.4263283854556761</v>
+        <v>0.4276503906890525</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.668525661805631</v>
+        <v>8.64348482795981</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007221544542972505</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,33 +729,36 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.546170189593141</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.531021220003666</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.494304529319265</v>
+        <v>6.415720573539886</v>
       </c>
       <c r="C10">
-        <v>0.7419540071642814</v>
+        <v>0.721394779697448</v>
       </c>
       <c r="D10">
-        <v>0.5197719678604074</v>
+        <v>0.5199270757346994</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.60176410477931</v>
+        <v>10.5559385545734</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006971373489328409</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,33 +770,36 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.211794936004779</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3.190741841828071</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.115686983944329</v>
+        <v>7.028384032579936</v>
       </c>
       <c r="C11">
-        <v>0.8095000572185711</v>
+        <v>0.7875646867345552</v>
       </c>
       <c r="D11">
-        <v>0.5659418232661722</v>
+        <v>0.5654775317591145</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.54951543730425</v>
+        <v>11.49280128044319</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006853974885130398</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,33 +811,36 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.547718133407784</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.523243609354907</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.359720171615209</v>
+        <v>7.268904839863467</v>
       </c>
       <c r="C12">
-        <v>0.835923657841704</v>
+        <v>0.8134465506012987</v>
       </c>
       <c r="D12">
-        <v>0.5841178737629775</v>
+        <v>0.5834006987915075</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.92123530396969</v>
+        <v>11.8600996667119</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006808725990861433</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,33 +852,36 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.681406322610201</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.655475509275178</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.306733040816141</v>
+        <v>7.216685003969076</v>
       </c>
       <c r="C13">
-        <v>0.8301913755416592</v>
+        <v>0.8078319959038254</v>
       </c>
       <c r="D13">
-        <v>0.5801692480054896</v>
+        <v>0.5795074710656536</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.84054905053483</v>
+        <v>11.78038089212947</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.000681851186890217</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,33 +893,36 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.652290821791212</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.626682019562594</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.135573966275672</v>
+        <v>7.047986787439584</v>
       </c>
       <c r="C14">
-        <v>0.811655624136904</v>
+        <v>0.7896761463939583</v>
       </c>
       <c r="D14">
-        <v>0.5674221370599355</v>
+        <v>0.566937450075983</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.57981904318194</v>
+        <v>11.52274779648735</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006850270049380933</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,33 +934,36 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.558574478942532</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.53398379405904</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.031946398031494</v>
+        <v>6.945836520120224</v>
       </c>
       <c r="C15">
-        <v>0.8004190528465926</v>
+        <v>0.778669344600047</v>
       </c>
       <c r="D15">
-        <v>0.5597102671744665</v>
+        <v>0.5593314530954387</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.42189152861846</v>
+        <v>11.36667489590064</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006869609788830801</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,33 +975,36 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.502077399940077</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.478087255495851</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.454786117192668</v>
+        <v>6.376746922553707</v>
       </c>
       <c r="C16">
-        <v>0.73764576338084</v>
+        <v>0.7171740066098096</v>
       </c>
       <c r="D16">
-        <v>0.5168412883247413</v>
+        <v>0.5170346725370507</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.54143567711503</v>
+        <v>10.49628595433086</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.000697895194340066</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,33 +1016,36 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.190640227068613</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3.169791890213389</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.113792764320635</v>
+        <v>6.040411817530469</v>
       </c>
       <c r="C17">
-        <v>0.7004103511671076</v>
+        <v>0.6806937403710833</v>
       </c>
       <c r="D17">
-        <v>0.4915821288275879</v>
+        <v>0.4921006227588691</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10.02064719527456</v>
+        <v>9.981252867277249</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007044940441706973</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,33 +1057,36 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.009096458378636</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2.989956508371492</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.92183373979077</v>
+        <v>5.851044353798841</v>
       </c>
       <c r="C18">
-        <v>0.679401406029541</v>
+        <v>0.6601104957996995</v>
       </c>
       <c r="D18">
-        <v>0.477385918531354</v>
+        <v>0.4780835140566637</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.72730802568131</v>
+        <v>9.691096421870753</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007082577708870924</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,33 +1098,36 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.907663115738544</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.889441016770292</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.857502824172911</v>
+        <v>5.787577422460856</v>
       </c>
       <c r="C19">
-        <v>0.6723530667173918</v>
+        <v>0.6532049680092484</v>
       </c>
       <c r="D19">
-        <v>0.4726321793152977</v>
+        <v>0.4733891912346166</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.62897771676478</v>
+        <v>9.593823969759057</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007095273467874197</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,33 +1139,36 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.873790135743221</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.855868912691875</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.149647311007186</v>
+        <v>6.075779961845683</v>
       </c>
       <c r="C20">
-        <v>0.7043306581256559</v>
+        <v>0.6845345944475696</v>
       </c>
       <c r="D20">
-        <v>0.4942356006526154</v>
+        <v>0.4947203354844874</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10.07542518468196</v>
+        <v>10.03543192888148</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007037950426329952</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,33 +1180,36 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.028102699616596</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>3.008787898914647</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.185589987406502</v>
+        <v>7.097286430763688</v>
       </c>
       <c r="C21">
-        <v>0.8170751651607873</v>
+        <v>0.7949847281445557</v>
       </c>
       <c r="D21">
-        <v>0.5711458608124929</v>
+        <v>0.5706097142043518</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.65602450077972</v>
+        <v>11.59805267188898</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006840966102406032</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,33 +1221,36 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.585908125337994</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.561023352307956</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.915131241350196</v>
+        <v>7.81610300487597</v>
       </c>
       <c r="C22">
-        <v>0.8958336181719062</v>
+        <v>0.8721179188327142</v>
       </c>
       <c r="D22">
-        <v>0.6255736149524296</v>
+        <v>0.6242584159267039</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.76605978349102</v>
+        <v>12.69451744629026</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006707395867333683</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,33 +1262,36 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.989635542954176</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3.960120346766601</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.520040170558104</v>
+        <v>7.426886829022521</v>
       </c>
       <c r="C23">
-        <v>0.8532499922698946</v>
+        <v>0.8304162829536779</v>
       </c>
       <c r="D23">
-        <v>0.5960717995886284</v>
+        <v>0.5951853072124322</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>12.16527262559282</v>
+        <v>12.10118375571631</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006779246284721807</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,33 +1303,36 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.769801229522983</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.742875760896027</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.133424902281149</v>
+        <v>6.059777720527563</v>
       </c>
       <c r="C24">
-        <v>0.7025570611953924</v>
+        <v>0.682796944005986</v>
       </c>
       <c r="D24">
-        <v>0.4930349634718425</v>
+        <v>0.4935349847346231</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>10.05064136326385</v>
+        <v>10.01091926934862</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.000704111152721506</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,33 +1344,36 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.019500943920903</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>3.000265389932949</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.79373381338462</v>
+        <v>4.73783470476144</v>
       </c>
       <c r="C25">
-        <v>0.5552400165538245</v>
+        <v>0.5384731018639002</v>
       </c>
       <c r="D25">
-        <v>0.3943145925809404</v>
+        <v>0.3960137573650115</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.001704019273376</v>
+        <v>7.983473836060426</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007311893717892855</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,9 +1385,12 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.321965125840663</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>2.308578873999181</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.844896077069507</v>
+        <v>3.818361643038941</v>
       </c>
       <c r="C2">
-        <v>0.4400696897928071</v>
+        <v>1.047180113930779</v>
       </c>
       <c r="D2">
-        <v>0.3306180827536451</v>
+        <v>0.009446620055778787</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.612503518773195</v>
+        <v>1.53729647956068</v>
       </c>
       <c r="G2">
-        <v>0.0007508097272936887</v>
+        <v>0.0007682820832512979</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,33 +451,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.853973739992043</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.5196040929348253</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.272754632700469</v>
+        <v>3.292313659843217</v>
       </c>
       <c r="C3">
-        <v>0.3765649527162225</v>
+        <v>0.9025840122035902</v>
       </c>
       <c r="D3">
-        <v>0.2889322159731478</v>
+        <v>0.01095039850907398</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.734175930777582</v>
+        <v>1.363973783286369</v>
       </c>
       <c r="G3">
-        <v>0.0007641406877354789</v>
+        <v>0.000776763136030512</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -486,33 +498,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.567457699681569</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.5710096480664895</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.93349910054593</v>
+        <v>2.974149745799139</v>
       </c>
       <c r="C4">
-        <v>0.3387101368006142</v>
+        <v>0.8150420894461377</v>
       </c>
       <c r="D4">
-        <v>0.2642955902178556</v>
+        <v>0.01195311645803798</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.213610142172456</v>
+        <v>1.262061793021701</v>
       </c>
       <c r="G4">
-        <v>0.0007724003784158328</v>
+        <v>0.000782099038168054</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -527,33 +545,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.399194360839346</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.6041754115872777</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.797753752167182</v>
+        <v>2.845526841282037</v>
       </c>
       <c r="C5">
-        <v>0.3235159749298617</v>
+        <v>0.7796278397870822</v>
       </c>
       <c r="D5">
-        <v>0.2544547242520849</v>
+        <v>0.01237999640009324</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.005397247138717</v>
+        <v>1.221542756198573</v>
       </c>
       <c r="G5">
-        <v>0.0007757921269315135</v>
+        <v>0.0007843075816516726</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -568,33 +592,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.332191013501102</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.6180729195134411</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.77535076435646</v>
+        <v>2.824226346578371</v>
       </c>
       <c r="C6">
-        <v>0.3210055764713218</v>
+        <v>0.7737615857750484</v>
       </c>
       <c r="D6">
-        <v>0.2528315408244168</v>
+        <v>0.01245193628920216</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.971039632781583</v>
+        <v>1.21487226903011</v>
       </c>
       <c r="G6">
-        <v>0.0007763570746581729</v>
+        <v>0.0007846764193409905</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -609,33 +639,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.32115031356939</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.6204031009876321</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.931658886817843</v>
+        <v>2.972411146674744</v>
       </c>
       <c r="C7">
-        <v>0.3385043493776436</v>
+        <v>0.8145634941124911</v>
       </c>
       <c r="D7">
-        <v>0.2641621194688355</v>
+        <v>0.01195880167478336</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.210787189226863</v>
+        <v>1.261511400503366</v>
       </c>
       <c r="G7">
-        <v>0.0007724460073818738</v>
+        <v>0.0007821286828521947</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -650,33 +686,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.398284824091775</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.6043613168704667</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.644779835219765</v>
+        <v>3.635861649558933</v>
       </c>
       <c r="C8">
-        <v>0.4179020122186046</v>
+        <v>0.9970328905291126</v>
       </c>
       <c r="D8">
-        <v>0.3160182386063042</v>
+        <v>0.009947564102787965</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.305255301804209</v>
+        <v>1.47652153195726</v>
       </c>
       <c r="G8">
-        <v>0.0007553954565147215</v>
+        <v>0.0007711808173222725</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -691,33 +733,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.753355371176127</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.5369830184338191</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.167893149670931</v>
+        <v>4.984500478942721</v>
       </c>
       <c r="C9">
-        <v>0.5855949307525634</v>
+        <v>1.367346140260508</v>
       </c>
       <c r="D9">
-        <v>0.4276503906890525</v>
+        <v>0.006720710477160274</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.64348482795981</v>
+        <v>1.940117269845004</v>
       </c>
       <c r="G9">
-        <v>0.0007221544542972505</v>
+        <v>0.0007506409643403654</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -732,33 +780,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.531021220003666</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.4186113130132139</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.415720573539886</v>
+        <v>6.019063711546494</v>
       </c>
       <c r="C10">
-        <v>0.721394779697448</v>
+        <v>1.651240096920617</v>
       </c>
       <c r="D10">
-        <v>0.5199270757346994</v>
+        <v>0.004928264640104096</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.5559385545734</v>
+        <v>2.316067811968068</v>
       </c>
       <c r="G10">
-        <v>0.0006971373489328409</v>
+        <v>0.0007359739089733194</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -773,33 +827,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.190741841828071</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.3416689578557595</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.028384032579936</v>
+        <v>6.503057203570563</v>
       </c>
       <c r="C11">
-        <v>0.7875646867345552</v>
+        <v>1.784068825236716</v>
       </c>
       <c r="D11">
-        <v>0.5654775317591145</v>
+        <v>0.004276819288565825</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.49280128044319</v>
+        <v>2.497333009179926</v>
       </c>
       <c r="G11">
-        <v>0.0006853974885130398</v>
+        <v>0.0007293563275072941</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -814,33 +874,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.523243609354907</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.3092741305920068</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.268904839863467</v>
+        <v>6.688630844040745</v>
       </c>
       <c r="C12">
-        <v>0.8134465506012987</v>
+        <v>1.835006394516256</v>
       </c>
       <c r="D12">
-        <v>0.5834006987915075</v>
+        <v>0.004057610380861831</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.8600996667119</v>
+        <v>2.567697345137248</v>
       </c>
       <c r="G12">
-        <v>0.0006808725990861433</v>
+        <v>0.0007268546569454415</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -855,33 +921,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.655475509275178</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.2974246142325168</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.216685003969076</v>
+        <v>6.648555584092833</v>
       </c>
       <c r="C13">
-        <v>0.8078319959038254</v>
+        <v>1.824005787306589</v>
       </c>
       <c r="D13">
-        <v>0.5795074710656536</v>
+        <v>0.004103529322322608</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.78038089212947</v>
+        <v>2.552462106004839</v>
       </c>
       <c r="G13">
-        <v>0.000681851186890217</v>
+        <v>0.0007273933094091698</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -896,33 +968,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.626682019562594</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.299957290598762</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.047986787439584</v>
+        <v>6.518276108420025</v>
       </c>
       <c r="C14">
-        <v>0.7896761463939583</v>
+        <v>1.788246018649659</v>
       </c>
       <c r="D14">
-        <v>0.566937450075983</v>
+        <v>0.004258209335906038</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.52274779648735</v>
+        <v>2.503085825910404</v>
       </c>
       <c r="G14">
-        <v>0.0006850270049380933</v>
+        <v>0.0007291504504048328</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -937,33 +1015,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.53398379405904</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.3082906239981327</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.945836520120224</v>
+        <v>6.438787184166301</v>
       </c>
       <c r="C15">
-        <v>0.778669344600047</v>
+        <v>1.766428741813797</v>
       </c>
       <c r="D15">
-        <v>0.5593314530954387</v>
+        <v>0.004356661270944251</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.36667489590064</v>
+        <v>2.473073886035337</v>
       </c>
       <c r="G15">
-        <v>0.0006869609788830801</v>
+        <v>0.0007302271902994129</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -978,33 +1062,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.478087255495851</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.3134508093120481</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.376746922553707</v>
+        <v>5.98773328639686</v>
       </c>
       <c r="C16">
-        <v>0.7171740066098096</v>
+        <v>1.642642464849928</v>
       </c>
       <c r="D16">
-        <v>0.5170346725370507</v>
+        <v>0.004974455999273708</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.49628595433086</v>
+        <v>2.304448394191795</v>
       </c>
       <c r="G16">
-        <v>0.000697895194340066</v>
+        <v>0.0007364071864873462</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1019,33 +1109,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.169791890213389</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.3438420118385093</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.040411817530469</v>
+        <v>5.714699023235596</v>
       </c>
       <c r="C17">
-        <v>0.6806937403710833</v>
+        <v>1.567719370278439</v>
       </c>
       <c r="D17">
-        <v>0.4921006227588691</v>
+        <v>0.005398020120946256</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.981252867277249</v>
+        <v>2.203792590700274</v>
       </c>
       <c r="G17">
-        <v>0.0007044940441706973</v>
+        <v>0.0007402099915283677</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1060,33 +1156,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.989956508371492</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.3631822420763111</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.851044353798841</v>
+        <v>5.558889645530542</v>
       </c>
       <c r="C18">
-        <v>0.6601104957996995</v>
+        <v>1.524964969865266</v>
       </c>
       <c r="D18">
-        <v>0.4780835140566637</v>
+        <v>0.005656805395203968</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.691096421870753</v>
+        <v>2.146845252969143</v>
       </c>
       <c r="G18">
-        <v>0.0007082577708870924</v>
+        <v>0.0007424026392960359</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1101,33 +1203,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.889441016770292</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.3745486744638384</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.787577422460856</v>
+        <v>5.506336454861241</v>
       </c>
       <c r="C19">
-        <v>0.6532049680092484</v>
+        <v>1.51054430588681</v>
       </c>
       <c r="D19">
-        <v>0.4733891912346166</v>
+        <v>0.005746921329980559</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.593823969759057</v>
+        <v>2.12771950350357</v>
       </c>
       <c r="G19">
-        <v>0.0007095273467874197</v>
+        <v>0.0007431460561289533</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1142,33 +1250,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.855868912691875</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.37843758632747</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.075779961845683</v>
+        <v>5.743633868440043</v>
       </c>
       <c r="C20">
-        <v>0.6845345944475696</v>
+        <v>1.575659202203838</v>
       </c>
       <c r="D20">
-        <v>0.4947203354844874</v>
+        <v>0.005351335551628367</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10.03543192888148</v>
+        <v>2.214407841821256</v>
       </c>
       <c r="G20">
-        <v>0.0007037950426329952</v>
+        <v>0.0007398046444239137</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1183,33 +1297,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.008787898914647</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.36109805877566</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.097286430763688</v>
+        <v>6.556476786122403</v>
       </c>
       <c r="C21">
-        <v>0.7949847281445557</v>
+        <v>1.798731261853561</v>
       </c>
       <c r="D21">
-        <v>0.5706097142043518</v>
+        <v>0.004211995804110913</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.59805267188898</v>
+        <v>2.517539892522962</v>
       </c>
       <c r="G21">
-        <v>0.0006840966102406032</v>
+        <v>0.0007286342508789707</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1224,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.561023352307956</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.3058312121780702</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.81610300487597</v>
+        <v>7.101313786940352</v>
       </c>
       <c r="C22">
-        <v>0.8721179188327142</v>
+        <v>1.948304640621927</v>
       </c>
       <c r="D22">
-        <v>0.6242584159267039</v>
+        <v>0.003629870149271852</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.69451744629026</v>
+        <v>2.725842229135139</v>
       </c>
       <c r="G22">
-        <v>0.0006707395867333683</v>
+        <v>0.0007213565506397623</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1265,33 +1391,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.960120346766601</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.2721705655029911</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.426886829022521</v>
+        <v>6.809141383257327</v>
       </c>
       <c r="C23">
-        <v>0.8304162829536779</v>
+        <v>1.868088056040563</v>
       </c>
       <c r="D23">
-        <v>0.5951853072124322</v>
+        <v>0.003924218967990001</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>12.10118375571631</v>
+        <v>2.613642445474966</v>
       </c>
       <c r="G23">
-        <v>0.0006779246284721807</v>
+        <v>0.0007252400335887136</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1306,33 +1438,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.742875760896027</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.28989495065162</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.059777720527563</v>
+        <v>5.730548834138062</v>
       </c>
       <c r="C24">
-        <v>0.682796944005986</v>
+        <v>1.572068615792716</v>
       </c>
       <c r="D24">
-        <v>0.4935349847346231</v>
+        <v>0.00537239436105974</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>10.01091926934862</v>
+        <v>2.209605836420806</v>
       </c>
       <c r="G24">
-        <v>0.000704111152721506</v>
+        <v>0.0007399878817691931</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1347,33 +1485,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.000265389932949</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.3620395503739484</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.73783470476144</v>
+        <v>4.613153112301575</v>
       </c>
       <c r="C25">
-        <v>0.5384731018639002</v>
+        <v>1.265427036414565</v>
       </c>
       <c r="D25">
-        <v>0.3960137573650115</v>
+        <v>0.007503577865285216</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.983473836060426</v>
+        <v>1.809274739080706</v>
       </c>
       <c r="G25">
-        <v>0.0007311893717892855</v>
+        <v>0.0007561118094335951</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1388,9 +1532,15 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.308578873999181</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.449004655983126</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.818361643038941</v>
+        <v>0.5587075183796344</v>
       </c>
       <c r="C2">
-        <v>1.047180113930779</v>
+        <v>0.1080093724616233</v>
       </c>
       <c r="D2">
-        <v>0.009446620055778787</v>
+        <v>0.03998934259214693</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.53729647956068</v>
+        <v>0.8323860678886916</v>
       </c>
       <c r="G2">
-        <v>0.0007682820832512979</v>
+        <v>0.7535196601994443</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5120422921657308</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5178274239076757</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6358714188413188</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.748849440974396</v>
       </c>
       <c r="N2">
-        <v>0.5196040929348253</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.292313659843217</v>
+        <v>0.4881576354458019</v>
       </c>
       <c r="C3">
-        <v>0.9025840122035902</v>
+        <v>0.09537782536803263</v>
       </c>
       <c r="D3">
-        <v>0.01095039850907398</v>
+        <v>0.0383905279888701</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.363973783286369</v>
+        <v>0.7729057933893131</v>
       </c>
       <c r="G3">
-        <v>0.000776763136030512</v>
+        <v>0.7013786980574253</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.494872755434784</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4985106927846488</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5566746559424161</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.338315131576763</v>
       </c>
       <c r="N3">
-        <v>0.5710096480664895</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.974149745799139</v>
+        <v>0.4447991948639043</v>
       </c>
       <c r="C4">
-        <v>0.8150420894461377</v>
+        <v>0.0876181810505301</v>
       </c>
       <c r="D4">
-        <v>0.01195311645803798</v>
+        <v>0.0373794062997419</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.262061793021701</v>
+        <v>0.7379303883204216</v>
       </c>
       <c r="G4">
-        <v>0.000782099038168054</v>
+        <v>0.6709135015279344</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4851905161651473</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4876424066079394</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5080021693692771</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.095304810730511</v>
       </c>
       <c r="N4">
-        <v>0.6041754115872777</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.845526841282037</v>
+        <v>0.4271163331579118</v>
       </c>
       <c r="C5">
-        <v>0.7796278397870822</v>
+        <v>0.08445394731080569</v>
       </c>
       <c r="D5">
-        <v>0.01237999640009324</v>
+        <v>0.03696050458812294</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.221542756198573</v>
+        <v>0.7240353397676103</v>
       </c>
       <c r="G5">
-        <v>0.0007843075816516726</v>
+        <v>0.6588561361909768</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4814473776962416</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.483445518797943</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.488151574121062</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.998163112111413</v>
       </c>
       <c r="N5">
-        <v>0.6180729195134411</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.824226346578371</v>
+        <v>0.4241791546166382</v>
       </c>
       <c r="C6">
-        <v>0.7737615857750484</v>
+        <v>0.08392836738140375</v>
       </c>
       <c r="D6">
-        <v>0.01245193628920216</v>
+        <v>0.03689054649045431</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.21487226903011</v>
+        <v>0.7217488256021625</v>
       </c>
       <c r="G6">
-        <v>0.0007846764193409905</v>
+        <v>0.6568747195435094</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4808376784404516</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4827621594796767</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4848542819394197</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.982136405962635</v>
       </c>
       <c r="N6">
-        <v>0.6204031009876321</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.972411146674744</v>
+        <v>0.4445607790732566</v>
       </c>
       <c r="C7">
-        <v>0.8145634941124911</v>
+        <v>0.08757551717374668</v>
       </c>
       <c r="D7">
-        <v>0.01195880167478336</v>
+        <v>0.03737378395769042</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.261511400503366</v>
+        <v>0.7377415855298679</v>
       </c>
       <c r="G7">
-        <v>0.0007821286828521947</v>
+        <v>0.6707494849326849</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4851392325583106</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4875848884680067</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5077345290651323</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.093987559253392</v>
       </c>
       <c r="N7">
-        <v>0.6043613168704667</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.635861649558933</v>
+        <v>0.5343880795520732</v>
       </c>
       <c r="C8">
-        <v>0.9970328905291126</v>
+        <v>0.1036541100728385</v>
       </c>
       <c r="D8">
-        <v>0.009947564102787965</v>
+        <v>0.03944453040950435</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.47652153195726</v>
+        <v>0.8115369540511779</v>
       </c>
       <c r="G8">
-        <v>0.0007711808173222725</v>
+        <v>0.7351995443814303</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5059350878074156</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.51095005244634</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6085709331140663</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.605162372209691</v>
       </c>
       <c r="N8">
-        <v>0.5369830184338191</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.984500478942721</v>
+        <v>0.7103845230987531</v>
       </c>
       <c r="C9">
-        <v>1.367346140260508</v>
+        <v>0.1352061712789947</v>
       </c>
       <c r="D9">
-        <v>0.006720710477160274</v>
+        <v>0.04324294353615699</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.940117269845004</v>
+        <v>0.9700723343891298</v>
       </c>
       <c r="G9">
-        <v>0.0007506409643403654</v>
+        <v>0.875505932970583</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5542302538997461</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5655231410437906</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8061627642207156</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.700912005468837</v>
       </c>
       <c r="N9">
-        <v>0.4186113130132139</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.019063711546494</v>
+        <v>0.8398017807108999</v>
       </c>
       <c r="C10">
-        <v>1.651240096920617</v>
+        <v>0.1584696897659654</v>
       </c>
       <c r="D10">
-        <v>0.004928264640104096</v>
+        <v>0.04582435483548863</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.316067811968068</v>
+        <v>1.097448634159377</v>
       </c>
       <c r="G10">
-        <v>0.0007359739089733194</v>
+        <v>0.9896656161939177</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.5953870522977951</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.6123565829270419</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9515082348318344</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.600911769727162</v>
       </c>
       <c r="N10">
-        <v>0.3416689578557595</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.503057203570563</v>
+        <v>0.8987277920693657</v>
       </c>
       <c r="C11">
-        <v>1.784068825236716</v>
+        <v>0.1690823784392563</v>
       </c>
       <c r="D11">
-        <v>0.004276819288565825</v>
+        <v>0.04693820857892206</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.497333009179926</v>
+        <v>1.158421981210054</v>
       </c>
       <c r="G11">
-        <v>0.0007293563275072941</v>
+        <v>1.044701032067778</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6156324314076329</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.6355015567507039</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.017703474715859</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.042822938910078</v>
       </c>
       <c r="N11">
-        <v>0.3092741305920068</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.688630844040745</v>
+        <v>0.9210486264118742</v>
       </c>
       <c r="C12">
-        <v>1.835006394516256</v>
+        <v>0.1731058851039364</v>
       </c>
       <c r="D12">
-        <v>0.004057610380861831</v>
+        <v>0.04734957273903007</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.567697345137248</v>
+        <v>1.182013088247373</v>
       </c>
       <c r="G12">
-        <v>0.0007268546569454415</v>
+        <v>1.066058512719664</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.6235468947960641</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.6445687280800954</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.042780682247951</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.216209735080483</v>
       </c>
       <c r="N12">
-        <v>0.2974246142325168</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.648555584092833</v>
+        <v>0.9162411773344559</v>
       </c>
       <c r="C13">
-        <v>1.824005787306589</v>
+        <v>0.1722391413969291</v>
       </c>
       <c r="D13">
-        <v>0.004103529322322608</v>
+        <v>0.04726147525086333</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.552462106004839</v>
+        <v>1.17690881356306</v>
       </c>
       <c r="G13">
-        <v>0.0007273933094091698</v>
+        <v>1.061434543867904</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6218308266856241</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.6426018042559747</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.037379436188587</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.178572443234387</v>
       </c>
       <c r="N13">
-        <v>0.299957290598762</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.518276108420025</v>
+        <v>0.9005640190330553</v>
       </c>
       <c r="C14">
-        <v>1.788246018649659</v>
+        <v>0.1694133001093689</v>
       </c>
       <c r="D14">
-        <v>0.004258209335906038</v>
+        <v>0.04697227256624359</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.503085825910404</v>
+        <v>1.160352354902102</v>
       </c>
       <c r="G14">
-        <v>0.0007291504504048328</v>
+        <v>1.04644731580224</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6162784046294973</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.6362412084545426</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.019766396592075</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.056957044914427</v>
       </c>
       <c r="N14">
-        <v>0.3082906239981327</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.438787184166301</v>
+        <v>0.8909621219716257</v>
       </c>
       <c r="C15">
-        <v>1.766428741813797</v>
+        <v>0.1676830064801322</v>
       </c>
       <c r="D15">
-        <v>0.004356661270944251</v>
+        <v>0.0467937091841506</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.473073886035337</v>
+        <v>1.150278572964012</v>
       </c>
       <c r="G15">
-        <v>0.0007302271902994129</v>
+        <v>1.03733682542773</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6129106279576746</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.6323858289154671</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.008979195389628</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.983299207511308</v>
       </c>
       <c r="N15">
-        <v>0.3134508093120481</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.98773328639686</v>
+        <v>0.8359518916424804</v>
       </c>
       <c r="C16">
-        <v>1.642642464849928</v>
+        <v>0.1577767752910262</v>
       </c>
       <c r="D16">
-        <v>0.004974455999273708</v>
+        <v>0.04575020831732246</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.304448394191795</v>
+        <v>1.093530231463532</v>
       </c>
       <c r="G16">
-        <v>0.0007364071864873462</v>
+        <v>0.9861371039883835</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.5940969791155339</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.6108841297172489</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.9471837925956095</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.572793880151437</v>
       </c>
       <c r="N16">
-        <v>0.3438420118385093</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.714699023235596</v>
+        <v>0.8022187905619091</v>
       </c>
       <c r="C17">
-        <v>1.567719370278439</v>
+        <v>0.1517077468230497</v>
       </c>
       <c r="D17">
-        <v>0.005398020120946256</v>
+        <v>0.045093485924248</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.203792590700274</v>
+        <v>1.059536348397145</v>
       </c>
       <c r="G17">
-        <v>0.0007402099915283677</v>
+        <v>0.9555688329513714</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.5829645823284721</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.5981898223961295</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9092945615940664</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.330140135361717</v>
       </c>
       <c r="N17">
-        <v>0.3631822420763111</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.558889645530542</v>
+        <v>0.7828216081502433</v>
       </c>
       <c r="C18">
-        <v>1.524964969865266</v>
+        <v>0.1482198250663345</v>
       </c>
       <c r="D18">
-        <v>0.005656805395203968</v>
+        <v>0.04471019506502927</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.146845252969143</v>
+        <v>1.040264524315958</v>
       </c>
       <c r="G18">
-        <v>0.0007424026392960359</v>
+        <v>0.9382740186762817</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.5767028783429566</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.5910589701683122</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8875090883842063</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.193529304117121</v>
       </c>
       <c r="N18">
-        <v>0.3745486744638384</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.506336454861241</v>
+        <v>0.7762549330845445</v>
       </c>
       <c r="C19">
-        <v>1.51054430588681</v>
+        <v>0.1470393391696518</v>
       </c>
       <c r="D19">
-        <v>0.005746921329980559</v>
+        <v>0.04457950935593402</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.12771950350357</v>
+        <v>1.033785771232928</v>
       </c>
       <c r="G19">
-        <v>0.0007431460561289533</v>
+        <v>0.9324656850969149</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.5746062469204674</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.5886728333153783</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8801341411304975</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.147747651333617</v>
       </c>
       <c r="N19">
-        <v>0.37843758632747</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.743633868440043</v>
+        <v>0.8058091955936391</v>
       </c>
       <c r="C20">
-        <v>1.575659202203838</v>
+        <v>0.1523535085380985</v>
       </c>
       <c r="D20">
-        <v>0.005351335551628367</v>
+        <v>0.04516398175773872</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.214407841821256</v>
+        <v>1.063125576332524</v>
       </c>
       <c r="G20">
-        <v>0.0007398046444239137</v>
+        <v>0.9587926794064572</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.5841348210116308</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.599523245304276</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9133271617919263</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.355656323717</v>
       </c>
       <c r="N20">
-        <v>0.36109805877566</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.556476786122403</v>
+        <v>0.9051686165052502</v>
       </c>
       <c r="C21">
-        <v>1.798731261853561</v>
+        <v>0.1702431900278896</v>
       </c>
       <c r="D21">
-        <v>0.004211995804110913</v>
+        <v>0.04705751786659107</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.517539892522962</v>
+        <v>1.165201179298379</v>
       </c>
       <c r="G21">
-        <v>0.0007286342508789707</v>
+        <v>1.050834773650095</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.6179022986339788</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.638100915707227</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.024939509710578</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.092501320919283</v>
       </c>
       <c r="N21">
-        <v>0.3058312121780702</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.101313786940352</v>
+        <v>0.9701427142578893</v>
       </c>
       <c r="C22">
-        <v>1.948304640621927</v>
+        <v>0.1819622918284267</v>
       </c>
       <c r="D22">
-        <v>0.003629870149271852</v>
+        <v>0.04823304061341815</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.725842229135139</v>
+        <v>1.23487900162803</v>
       </c>
       <c r="G22">
-        <v>0.0007213565506397623</v>
+        <v>1.114045165593723</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.6414342409398159</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.6651012525946953</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.097942730286462</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.610288202219522</v>
       </c>
       <c r="N22">
-        <v>0.2721705655029911</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.809141383257327</v>
+        <v>0.9354625671009842</v>
       </c>
       <c r="C23">
-        <v>1.868088056040563</v>
+        <v>0.175705138530418</v>
       </c>
       <c r="D23">
-        <v>0.003924218967990001</v>
+        <v>0.04761203824396176</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.613642445474966</v>
+        <v>1.197393963314667</v>
       </c>
       <c r="G23">
-        <v>0.0007252400335887136</v>
+        <v>1.080001923789311</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.6287299203923453</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.6505125025192342</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.058975403539762</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.3300472324716</v>
       </c>
       <c r="N23">
-        <v>0.28989495065162</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.730548834138062</v>
+        <v>0.8041859845902195</v>
       </c>
       <c r="C24">
-        <v>1.572068615792716</v>
+        <v>0.1520615558326739</v>
       </c>
       <c r="D24">
-        <v>0.00537239436105974</v>
+        <v>0.04513212832318914</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.209605836420806</v>
+        <v>1.061502044893317</v>
       </c>
       <c r="G24">
-        <v>0.0007399878817691931</v>
+        <v>0.9573343136277543</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.5836053269519113</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.5989198865606298</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9115040308855384</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.34411153804956</v>
       </c>
       <c r="N24">
-        <v>0.3620395503739484</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.613153112301575</v>
+        <v>0.662765767996035</v>
       </c>
       <c r="C25">
-        <v>1.265427036414565</v>
+        <v>0.1266606954889795</v>
       </c>
       <c r="D25">
-        <v>0.007503577865285216</v>
+        <v>0.0422479234987847</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.809274739080706</v>
+        <v>0.925468395561083</v>
       </c>
       <c r="G25">
-        <v>0.0007561118094335951</v>
+        <v>0.8358125716868869</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5402561231511669</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5496890107584278</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7526948580687929</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.391082371752063</v>
       </c>
       <c r="N25">
-        <v>0.449004655983126</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5587075183796344</v>
+        <v>0.1787717633110617</v>
       </c>
       <c r="C2">
-        <v>0.1080093724616233</v>
+        <v>0.03353462622342818</v>
       </c>
       <c r="D2">
-        <v>0.03998934259214693</v>
+        <v>0.02892823157375446</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8323860678886916</v>
+        <v>0.9168275556501868</v>
       </c>
       <c r="G2">
-        <v>0.7535196601994443</v>
+        <v>0.7678336403582477</v>
       </c>
       <c r="H2">
-        <v>0.5120422921657308</v>
+        <v>0.8280886392317086</v>
       </c>
       <c r="I2">
-        <v>0.5178274239076757</v>
+        <v>0.7021028952361803</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6358714188413188</v>
+        <v>0.1917756758864329</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.748849440974396</v>
+        <v>0.8825804115905527</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4881576354458019</v>
+        <v>0.1575630821617438</v>
       </c>
       <c r="C3">
-        <v>0.09537782536803263</v>
+        <v>0.02956669347233287</v>
       </c>
       <c r="D3">
-        <v>0.0383905279888701</v>
+        <v>0.02807602933530262</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7729057933893131</v>
+        <v>0.9058254434294426</v>
       </c>
       <c r="G3">
-        <v>0.7013786980574253</v>
+        <v>0.757775792964253</v>
       </c>
       <c r="H3">
-        <v>0.494872755434784</v>
+        <v>0.8275313332253234</v>
       </c>
       <c r="I3">
-        <v>0.4985106927846488</v>
+        <v>0.700236497951721</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5566746559424161</v>
+        <v>0.1676882481611557</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.338315131576763</v>
+        <v>0.7860361702641683</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4447991948639043</v>
+        <v>0.1445492513491473</v>
       </c>
       <c r="C4">
-        <v>0.0876181810505301</v>
+        <v>0.02711624283243452</v>
       </c>
       <c r="D4">
-        <v>0.0373794062997419</v>
+        <v>0.02754214540397371</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7379303883204216</v>
+        <v>0.8995832456350428</v>
       </c>
       <c r="G4">
-        <v>0.6709135015279344</v>
+        <v>0.7520574427439897</v>
       </c>
       <c r="H4">
-        <v>0.4851905161651473</v>
+        <v>0.827543678885192</v>
       </c>
       <c r="I4">
-        <v>0.4876424066079394</v>
+        <v>0.6994339721324465</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5080021693692771</v>
+        <v>0.1528842266068438</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.095304810730511</v>
+        <v>0.727296995630752</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4271163331579118</v>
+        <v>0.1392484981522415</v>
       </c>
       <c r="C5">
-        <v>0.08445394731080569</v>
+        <v>0.02611414034200266</v>
       </c>
       <c r="D5">
-        <v>0.03696050458812294</v>
+        <v>0.02732193677843142</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7240353397676103</v>
+        <v>0.8971682413484103</v>
       </c>
       <c r="G5">
-        <v>0.6588561361909768</v>
+        <v>0.7498417245989515</v>
       </c>
       <c r="H5">
-        <v>0.4814473776962416</v>
+        <v>0.8276377711995764</v>
       </c>
       <c r="I5">
-        <v>0.483445518797943</v>
+        <v>0.6991930878981591</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.488151574121062</v>
+        <v>0.1468482556740724</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.998163112111413</v>
+        <v>0.7034896055670004</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4241791546166382</v>
+        <v>0.1383684736421884</v>
       </c>
       <c r="C6">
-        <v>0.08392836738140375</v>
+        <v>0.0259475299682066</v>
       </c>
       <c r="D6">
-        <v>0.03689054649045431</v>
+        <v>0.02728521222221048</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7217488256021625</v>
+        <v>0.896774998933104</v>
       </c>
       <c r="G6">
-        <v>0.6568747195435094</v>
+        <v>0.749480713158917</v>
       </c>
       <c r="H6">
-        <v>0.4808376784404516</v>
+        <v>0.827658771668041</v>
       </c>
       <c r="I6">
-        <v>0.4827621594796767</v>
+        <v>0.6991582864298778</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4848542819394197</v>
+        <v>0.1458458042228727</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.982136405962635</v>
+        <v>0.6995440331435958</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4445607790732566</v>
+        <v>0.1444777529572434</v>
       </c>
       <c r="C7">
-        <v>0.08757551717374668</v>
+        <v>0.02710274236048349</v>
       </c>
       <c r="D7">
-        <v>0.03737378395769042</v>
+        <v>0.02753918627547591</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7377415855298679</v>
+        <v>0.8995501551519993</v>
       </c>
       <c r="G7">
-        <v>0.6707494849326849</v>
+        <v>0.7520270975021788</v>
       </c>
       <c r="H7">
-        <v>0.4851392325583106</v>
+        <v>0.8275445873543674</v>
       </c>
       <c r="I7">
-        <v>0.4875848884680067</v>
+        <v>0.6994303749352397</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5077345290651323</v>
+        <v>0.1528028359060727</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.093987559253392</v>
+        <v>0.7269754055958657</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5343880795520732</v>
+        <v>0.1714574905424513</v>
       </c>
       <c r="C8">
-        <v>0.1036541100728385</v>
+        <v>0.03216942981165971</v>
       </c>
       <c r="D8">
-        <v>0.03944453040950435</v>
+        <v>0.02863661347872437</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8115369540511779</v>
+        <v>0.9129273425157152</v>
       </c>
       <c r="G8">
-        <v>0.7351995443814303</v>
+        <v>0.764270547080045</v>
       </c>
       <c r="H8">
-        <v>0.5059350878074156</v>
+        <v>0.8278228407560704</v>
       </c>
       <c r="I8">
-        <v>0.51095005244634</v>
+        <v>0.7013879486869854</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6085709331140663</v>
+        <v>0.1834735010080664</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.605162372209691</v>
+        <v>0.849176137151332</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7103845230987531</v>
+        <v>0.2244171656265053</v>
       </c>
       <c r="C9">
-        <v>0.1352061712789947</v>
+        <v>0.04199236852471699</v>
       </c>
       <c r="D9">
-        <v>0.04324294353615699</v>
+        <v>0.03070327271258222</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9700723343891298</v>
+        <v>0.9432472336838487</v>
       </c>
       <c r="G9">
-        <v>0.875505932970583</v>
+        <v>0.7919284706224659</v>
       </c>
       <c r="H9">
-        <v>0.5542302538997461</v>
+        <v>0.8311865309906779</v>
       </c>
       <c r="I9">
-        <v>0.5655231410437906</v>
+        <v>0.7079624058502247</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8061627642207156</v>
+        <v>0.2434922760148481</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.700912005468837</v>
+        <v>1.093392505533117</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8398017807108999</v>
+        <v>0.2633436677054988</v>
       </c>
       <c r="C10">
-        <v>0.1584696897659654</v>
+        <v>0.04914016817168942</v>
       </c>
       <c r="D10">
-        <v>0.04582435483548863</v>
+        <v>0.03216827989351856</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.097448634159377</v>
+        <v>0.9680403655024321</v>
       </c>
       <c r="G10">
-        <v>0.9896656161939177</v>
+        <v>0.8145049845615517</v>
       </c>
       <c r="H10">
-        <v>0.5953870522977951</v>
+        <v>0.835384050270477</v>
       </c>
       <c r="I10">
-        <v>0.6123565829270419</v>
+        <v>0.7144764332089082</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9515082348318344</v>
+        <v>0.2874975487356153</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.600911769727162</v>
+        <v>1.276051646617873</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8987277920693657</v>
+        <v>0.2810531195605677</v>
       </c>
       <c r="C11">
-        <v>0.1690823784392563</v>
+        <v>0.05237685049391416</v>
       </c>
       <c r="D11">
-        <v>0.04693820857892206</v>
+        <v>0.03282289162630292</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.158421981210054</v>
+        <v>0.9798717050848751</v>
       </c>
       <c r="G11">
-        <v>1.044701032067778</v>
+        <v>0.8252726701581139</v>
       </c>
       <c r="H11">
-        <v>0.6156324314076329</v>
+        <v>0.8376703418863087</v>
       </c>
       <c r="I11">
-        <v>0.6355015567507039</v>
+        <v>0.7178090246420581</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.017703474715859</v>
+        <v>0.3074944418446819</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.042822938910078</v>
+        <v>1.359948983987636</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9210486264118742</v>
+        <v>0.2877591269201218</v>
       </c>
       <c r="C12">
-        <v>0.1731058851039364</v>
+        <v>0.05360033860029034</v>
       </c>
       <c r="D12">
-        <v>0.04734957273903007</v>
+        <v>0.03306905029229057</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.182013088247373</v>
+        <v>0.9844318158732079</v>
       </c>
       <c r="G12">
-        <v>1.066058512719664</v>
+        <v>0.8294221732038949</v>
       </c>
       <c r="H12">
-        <v>0.6235468947960641</v>
+        <v>0.8385904202993117</v>
       </c>
       <c r="I12">
-        <v>0.6445687280800954</v>
+        <v>0.719124366054487</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.042780682247951</v>
+        <v>0.3150633642891876</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.216209735080483</v>
+        <v>1.391842403467592</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9162411773344559</v>
+        <v>0.2863148826108954</v>
       </c>
       <c r="C13">
-        <v>0.1722391413969291</v>
+        <v>0.05333693571694198</v>
       </c>
       <c r="D13">
-        <v>0.04726147525086333</v>
+        <v>0.03301611294048001</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.17690881356306</v>
+        <v>0.9834461580277889</v>
       </c>
       <c r="G13">
-        <v>1.061434543867904</v>
+        <v>0.8285252930686227</v>
       </c>
       <c r="H13">
-        <v>0.6218308266856241</v>
+        <v>0.8383898475389344</v>
       </c>
       <c r="I13">
-        <v>0.6426018042559747</v>
+        <v>0.7188387064374666</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.037379436188587</v>
+        <v>0.3134334219727748</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.178572443234387</v>
+        <v>1.384967977314147</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9005640190330553</v>
+        <v>0.2816048327064209</v>
       </c>
       <c r="C14">
-        <v>0.1694133001093689</v>
+        <v>0.05247755133648013</v>
       </c>
       <c r="D14">
-        <v>0.04697227256624359</v>
+        <v>0.03284317805050563</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.160352354902102</v>
+        <v>0.9802452660613881</v>
       </c>
       <c r="G14">
-        <v>1.04644731580224</v>
+        <v>0.8256126062823057</v>
       </c>
       <c r="H14">
-        <v>0.6162784046294973</v>
+        <v>0.8377449481367734</v>
       </c>
       <c r="I14">
-        <v>0.6362412084545426</v>
+        <v>0.7179161676760586</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.019766396592075</v>
+        <v>0.3081172134220367</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.056957044914427</v>
+        <v>1.362570359115239</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8909621219716257</v>
+        <v>0.2787197559569279</v>
       </c>
       <c r="C15">
-        <v>0.1676830064801322</v>
+        <v>0.05195086960605977</v>
       </c>
       <c r="D15">
-        <v>0.0467937091841506</v>
+        <v>0.03273702449931903</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.150278572964012</v>
+        <v>0.9782950350169415</v>
       </c>
       <c r="G15">
-        <v>1.03733682542773</v>
+        <v>0.8238378939713868</v>
       </c>
       <c r="H15">
-        <v>0.6129106279576746</v>
+        <v>0.8373570050115262</v>
       </c>
       <c r="I15">
-        <v>0.6323858289154671</v>
+        <v>0.7173580428052944</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.008979195389628</v>
+        <v>0.3048604188167587</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.983299207511308</v>
+        <v>1.348867459697644</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8359518916424804</v>
+        <v>0.2621863106109004</v>
       </c>
       <c r="C16">
-        <v>0.1577767752910262</v>
+        <v>0.04892834102184906</v>
       </c>
       <c r="D16">
-        <v>0.04575020831732246</v>
+        <v>0.03212525909869157</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.093530231463532</v>
+        <v>0.9672783131500893</v>
       </c>
       <c r="G16">
-        <v>0.9861371039883835</v>
+        <v>0.8138113425397364</v>
       </c>
       <c r="H16">
-        <v>0.5940969791155339</v>
+        <v>0.8352422287904631</v>
       </c>
       <c r="I16">
-        <v>0.6108841297172489</v>
+        <v>0.7142660938675149</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9471837925956095</v>
+        <v>0.2861902413606572</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.572793880151437</v>
+        <v>1.270585597070422</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8022187905619091</v>
+        <v>0.2520436951929526</v>
       </c>
       <c r="C17">
-        <v>0.1517077468230497</v>
+        <v>0.0470702814920827</v>
       </c>
       <c r="D17">
-        <v>0.045093485924248</v>
+        <v>0.03174691172713295</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.059536348397145</v>
+        <v>0.9606617455226996</v>
       </c>
       <c r="G17">
-        <v>0.9555688329513714</v>
+        <v>0.8077881384325707</v>
       </c>
       <c r="H17">
-        <v>0.5829645823284721</v>
+        <v>0.8340414815359622</v>
       </c>
       <c r="I17">
-        <v>0.5981898223961295</v>
+        <v>0.7124640559212096</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9092945615940664</v>
+        <v>0.2747309448907345</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.330140135361717</v>
+        <v>1.222773673458235</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7828216081502433</v>
+        <v>0.2462101050033425</v>
       </c>
       <c r="C18">
-        <v>0.1482198250663345</v>
+        <v>0.04600017544144919</v>
       </c>
       <c r="D18">
-        <v>0.04471019506502927</v>
+        <v>0.03152818473250818</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.040264524315958</v>
+        <v>0.9569080840421265</v>
       </c>
       <c r="G18">
-        <v>0.9382740186762817</v>
+        <v>0.8043705508832772</v>
       </c>
       <c r="H18">
-        <v>0.5767028783429566</v>
+        <v>0.8333863039837439</v>
       </c>
       <c r="I18">
-        <v>0.5910589701683122</v>
+        <v>0.7114623190031821</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8875090883842063</v>
+        <v>0.2681378771782192</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.193529304117121</v>
+        <v>1.195348803229635</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7762549330845445</v>
+        <v>0.2442349938823156</v>
       </c>
       <c r="C19">
-        <v>0.1470393391696518</v>
+        <v>0.0456376165667649</v>
       </c>
       <c r="D19">
-        <v>0.04457950935593402</v>
+        <v>0.03145393746231662</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.033785771232928</v>
+        <v>0.9556460816328496</v>
       </c>
       <c r="G19">
-        <v>0.9324656850969149</v>
+        <v>0.8032214381067888</v>
       </c>
       <c r="H19">
-        <v>0.5746062469204674</v>
+        <v>0.8331705587702771</v>
       </c>
       <c r="I19">
-        <v>0.5886728333153783</v>
+        <v>0.7111291083766673</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8801341411304975</v>
+        <v>0.2659052492898013</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.147747651333617</v>
+        <v>1.186075915304258</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8058091955936391</v>
+        <v>0.2531233788656664</v>
       </c>
       <c r="C20">
-        <v>0.1523535085380985</v>
+        <v>0.04726822016293397</v>
       </c>
       <c r="D20">
-        <v>0.04516398175773872</v>
+        <v>0.03178730269826957</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.063125576332524</v>
+        <v>0.9613607047881345</v>
       </c>
       <c r="G20">
-        <v>0.9587926794064572</v>
+        <v>0.8084244717495892</v>
       </c>
       <c r="H20">
-        <v>0.5841348210116308</v>
+        <v>0.8341656322177897</v>
       </c>
       <c r="I20">
-        <v>0.599523245304276</v>
+        <v>0.712652287867293</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9133271617919263</v>
+        <v>0.2759510147465107</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.355656323717</v>
+        <v>1.227855488399342</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9051686165052502</v>
+        <v>0.282988296591725</v>
       </c>
       <c r="C21">
-        <v>0.1702431900278896</v>
+        <v>0.05273003259999598</v>
       </c>
       <c r="D21">
-        <v>0.04705751786659107</v>
+        <v>0.0328940203541066</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.165201179298379</v>
+        <v>0.9811832760455133</v>
       </c>
       <c r="G21">
-        <v>1.050834773650095</v>
+        <v>0.8264661747700757</v>
       </c>
       <c r="H21">
-        <v>0.6179022986339788</v>
+        <v>0.8379328957892511</v>
       </c>
       <c r="I21">
-        <v>0.638100915707227</v>
+        <v>0.7181856894361687</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.024939509710578</v>
+        <v>0.3096788100183687</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.092501320919283</v>
+        <v>1.369145674187223</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9701427142578893</v>
+        <v>0.3025055232419902</v>
       </c>
       <c r="C22">
-        <v>0.1819622918284267</v>
+        <v>0.05628696039076431</v>
       </c>
       <c r="D22">
-        <v>0.04823304061341815</v>
+        <v>0.03360723593487336</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.23487900162803</v>
+        <v>0.9946039989087723</v>
       </c>
       <c r="G22">
-        <v>1.114045165593723</v>
+        <v>0.8386774463912019</v>
       </c>
       <c r="H22">
-        <v>0.6414342409398159</v>
+        <v>0.8407116357415134</v>
       </c>
       <c r="I22">
-        <v>0.6651012525946953</v>
+        <v>0.7221132370302783</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.097942730286462</v>
+        <v>0.3317014806761165</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.610288202219522</v>
+        <v>1.462209439755611</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9354625671009842</v>
+        <v>0.2920890579669901</v>
       </c>
       <c r="C23">
-        <v>0.175705138530418</v>
+        <v>0.05438973224138977</v>
       </c>
       <c r="D23">
-        <v>0.04761203824396176</v>
+        <v>0.0332275116111731</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.197393963314667</v>
+        <v>0.9873983960979871</v>
       </c>
       <c r="G23">
-        <v>1.080001923789311</v>
+        <v>0.8321214761160149</v>
       </c>
       <c r="H23">
-        <v>0.6287299203923453</v>
+        <v>0.839199558317091</v>
       </c>
       <c r="I23">
-        <v>0.6505125025192342</v>
+        <v>0.7199884766644544</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.058975403539762</v>
+        <v>0.3199495648623554</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.3300472324716</v>
+        <v>1.412470890922805</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8041859845902195</v>
+        <v>0.2526352615255689</v>
       </c>
       <c r="C24">
-        <v>0.1520615558326739</v>
+        <v>0.04717873795311789</v>
       </c>
       <c r="D24">
-        <v>0.04513212832318914</v>
+        <v>0.03176904570707251</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.061502044893317</v>
+        <v>0.9610445486837733</v>
       </c>
       <c r="G24">
-        <v>0.9573343136277543</v>
+        <v>0.8081366446028255</v>
       </c>
       <c r="H24">
-        <v>0.5836053269519113</v>
+        <v>0.8341093942252513</v>
       </c>
       <c r="I24">
-        <v>0.5989198865606298</v>
+        <v>0.7125670814530167</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9115040308855384</v>
+        <v>0.2753994366006509</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.34411153804956</v>
+        <v>1.225557804698937</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.662765767996035</v>
+        <v>0.2100861053138772</v>
       </c>
       <c r="C25">
-        <v>0.1266606954889795</v>
+        <v>0.03934711647532652</v>
       </c>
       <c r="D25">
-        <v>0.0422479234987847</v>
+        <v>0.0301534644506134</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.925468395561083</v>
+        <v>0.9346047141559524</v>
       </c>
       <c r="G25">
-        <v>0.8358125716868869</v>
+        <v>0.7840523722920523</v>
       </c>
       <c r="H25">
-        <v>0.5402561231511669</v>
+        <v>0.8299740256247787</v>
       </c>
       <c r="I25">
-        <v>0.5496890107584278</v>
+        <v>0.7058893187736572</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7526948580687929</v>
+        <v>0.2272705328956732</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.391082371752063</v>
+        <v>1.026790146739458</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1787717633110617</v>
+        <v>0.5587075183797765</v>
       </c>
       <c r="C2">
-        <v>0.03353462622342818</v>
+        <v>0.1080093724618507</v>
       </c>
       <c r="D2">
-        <v>0.02892823157375446</v>
+        <v>0.03998934259200482</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9168275556501868</v>
+        <v>0.8323860678886916</v>
       </c>
       <c r="G2">
-        <v>0.7678336403582477</v>
+        <v>0.7535196601994159</v>
       </c>
       <c r="H2">
-        <v>0.8280886392317086</v>
+        <v>0.5120422921657592</v>
       </c>
       <c r="I2">
-        <v>0.7021028952361803</v>
+        <v>0.517827423907697</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1917756758864329</v>
+        <v>0.6358714188413472</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8825804115905527</v>
+        <v>2.748849440974439</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1575630821617438</v>
+        <v>0.4881576354459582</v>
       </c>
       <c r="C3">
-        <v>0.02956669347233287</v>
+        <v>0.09537782536777684</v>
       </c>
       <c r="D3">
-        <v>0.02807602933530262</v>
+        <v>0.03839052798914722</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9058254434294426</v>
+        <v>0.772905793389306</v>
       </c>
       <c r="G3">
-        <v>0.757775792964253</v>
+        <v>0.7013786980574395</v>
       </c>
       <c r="H3">
-        <v>0.8275313332253234</v>
+        <v>0.4948727554349261</v>
       </c>
       <c r="I3">
-        <v>0.700236497951721</v>
+        <v>0.498510692784663</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1676882481611557</v>
+        <v>0.5566746559424587</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7860361702641683</v>
+        <v>2.338315131576792</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1445492513491473</v>
+        <v>0.4447991948639611</v>
       </c>
       <c r="C4">
-        <v>0.02711624283243452</v>
+        <v>0.08761818105077168</v>
       </c>
       <c r="D4">
-        <v>0.02754214540397371</v>
+        <v>0.03737940629985914</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8995832456350428</v>
+        <v>0.7379303883204216</v>
       </c>
       <c r="G4">
-        <v>0.7520574427439897</v>
+        <v>0.6709135015279344</v>
       </c>
       <c r="H4">
-        <v>0.827543678885192</v>
+        <v>0.4851905161651473</v>
       </c>
       <c r="I4">
-        <v>0.6994339721324465</v>
+        <v>0.4876424066079181</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1528842266068438</v>
+        <v>0.5080021693692487</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.727296995630752</v>
+        <v>2.095304810730553</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1392484981522415</v>
+        <v>0.4271163331579686</v>
       </c>
       <c r="C5">
-        <v>0.02611414034200266</v>
+        <v>0.08445394731089095</v>
       </c>
       <c r="D5">
-        <v>0.02732193677843142</v>
+        <v>0.03696050458810163</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8971682413484103</v>
+        <v>0.7240353397676031</v>
       </c>
       <c r="G5">
-        <v>0.7498417245989515</v>
+        <v>0.6588561361910052</v>
       </c>
       <c r="H5">
-        <v>0.8276377711995764</v>
+        <v>0.4814473776962416</v>
       </c>
       <c r="I5">
-        <v>0.6991930878981591</v>
+        <v>0.4834455187979714</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1468482556740724</v>
+        <v>0.4881515741210478</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7034896055670004</v>
+        <v>1.998163112111442</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1383684736421884</v>
+        <v>0.4241791546166382</v>
       </c>
       <c r="C6">
-        <v>0.0259475299682066</v>
+        <v>0.08392836738116216</v>
       </c>
       <c r="D6">
-        <v>0.02728521222221048</v>
+        <v>0.03689054649044721</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.896774998933104</v>
+        <v>0.7217488256021483</v>
       </c>
       <c r="G6">
-        <v>0.749480713158917</v>
+        <v>0.656874719543552</v>
       </c>
       <c r="H6">
-        <v>0.827658771668041</v>
+        <v>0.4808376784404658</v>
       </c>
       <c r="I6">
-        <v>0.6991582864298778</v>
+        <v>0.4827621594796696</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1458458042228727</v>
+        <v>0.484854281939505</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6995440331435958</v>
+        <v>1.982136405962621</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1444777529572434</v>
+        <v>0.4445607790731003</v>
       </c>
       <c r="C7">
-        <v>0.02710274236048349</v>
+        <v>0.0875755171736472</v>
       </c>
       <c r="D7">
-        <v>0.02753918627547591</v>
+        <v>0.03737378395769397</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8995501551519993</v>
+        <v>0.7377415855298679</v>
       </c>
       <c r="G7">
-        <v>0.7520270975021788</v>
+        <v>0.6707494849326565</v>
       </c>
       <c r="H7">
-        <v>0.8275445873543674</v>
+        <v>0.4851392325581969</v>
       </c>
       <c r="I7">
-        <v>0.6994303749352397</v>
+        <v>0.4875848884679925</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1528028359060727</v>
+        <v>0.5077345290651323</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7269754055958657</v>
+        <v>2.093987559253392</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1714574905424513</v>
+        <v>0.5343880795518601</v>
       </c>
       <c r="C8">
-        <v>0.03216942981165971</v>
+        <v>0.1036541100724548</v>
       </c>
       <c r="D8">
-        <v>0.02863661347872437</v>
+        <v>0.0394445304093054</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9129273425157152</v>
+        <v>0.8115369540512063</v>
       </c>
       <c r="G8">
-        <v>0.764270547080045</v>
+        <v>0.7351995443814587</v>
       </c>
       <c r="H8">
-        <v>0.8278228407560704</v>
+        <v>0.5059350878073161</v>
       </c>
       <c r="I8">
-        <v>0.7013879486869854</v>
+        <v>0.5109500524463328</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1834735010080664</v>
+        <v>0.6085709331140237</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.849176137151332</v>
+        <v>2.60516237220962</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2244171656265053</v>
+        <v>0.7103845230987531</v>
       </c>
       <c r="C9">
-        <v>0.04199236852471699</v>
+        <v>0.1352061712792363</v>
       </c>
       <c r="D9">
-        <v>0.03070327271258222</v>
+        <v>0.04324294353633817</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9432472336838487</v>
+        <v>0.9700723343891298</v>
       </c>
       <c r="G9">
-        <v>0.7919284706224659</v>
+        <v>0.875505932970583</v>
       </c>
       <c r="H9">
-        <v>0.8311865309906779</v>
+        <v>0.5542302538996466</v>
       </c>
       <c r="I9">
-        <v>0.7079624058502247</v>
+        <v>0.565523141043812</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2434922760148481</v>
+        <v>0.8061627642207299</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.093392505533117</v>
+        <v>3.700912005468822</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2633436677054988</v>
+        <v>0.8398017807110705</v>
       </c>
       <c r="C10">
-        <v>0.04914016817168942</v>
+        <v>0.1584696897659796</v>
       </c>
       <c r="D10">
-        <v>0.03216827989351856</v>
+        <v>0.04582435483538205</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9680403655024321</v>
+        <v>1.097448634159392</v>
       </c>
       <c r="G10">
-        <v>0.8145049845615517</v>
+        <v>0.9896656161939035</v>
       </c>
       <c r="H10">
-        <v>0.835384050270477</v>
+        <v>0.5953870522977951</v>
       </c>
       <c r="I10">
-        <v>0.7144764332089082</v>
+        <v>0.6123565829270348</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2874975487356153</v>
+        <v>0.9515082348317776</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.276051646617873</v>
+        <v>4.600911769727162</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2810531195605677</v>
+        <v>0.8987277920694794</v>
       </c>
       <c r="C11">
-        <v>0.05237685049391416</v>
+        <v>0.1690823784392705</v>
       </c>
       <c r="D11">
-        <v>0.03282289162630292</v>
+        <v>0.04693820857877995</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9798717050848751</v>
+        <v>1.158421981210054</v>
       </c>
       <c r="G11">
-        <v>0.8252726701581139</v>
+        <v>1.044701032067792</v>
       </c>
       <c r="H11">
-        <v>0.8376703418863087</v>
+        <v>0.6156324314076187</v>
       </c>
       <c r="I11">
-        <v>0.7178090246420581</v>
+        <v>0.6355015567507181</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3074944418446819</v>
+        <v>1.017703474715802</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.359948983987636</v>
+        <v>5.042822938910064</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2877591269201218</v>
+        <v>0.921048626411789</v>
       </c>
       <c r="C12">
-        <v>0.05360033860029034</v>
+        <v>0.1731058851040927</v>
       </c>
       <c r="D12">
-        <v>0.03306905029229057</v>
+        <v>0.04734957273912244</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9844318158732079</v>
+        <v>1.182013088247388</v>
       </c>
       <c r="G12">
-        <v>0.8294221732038949</v>
+        <v>1.066058512719593</v>
       </c>
       <c r="H12">
-        <v>0.8385904202993117</v>
+        <v>0.6235468947961778</v>
       </c>
       <c r="I12">
-        <v>0.719124366054487</v>
+        <v>0.6445687280800954</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3150633642891876</v>
+        <v>1.042780682247951</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.391842403467592</v>
+        <v>5.216209735080511</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2863148826108954</v>
+        <v>0.916241177334399</v>
       </c>
       <c r="C13">
-        <v>0.05333693571694198</v>
+        <v>0.1722391413968154</v>
       </c>
       <c r="D13">
-        <v>0.03301611294048001</v>
+        <v>0.04726147525087754</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9834461580277889</v>
+        <v>1.17690881356306</v>
       </c>
       <c r="G13">
-        <v>0.8285252930686227</v>
+        <v>1.061434543867904</v>
       </c>
       <c r="H13">
-        <v>0.8383898475389344</v>
+        <v>0.6218308266856098</v>
       </c>
       <c r="I13">
-        <v>0.7188387064374666</v>
+        <v>0.642601804255996</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3134334219727748</v>
+        <v>1.037379436188672</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.384967977314147</v>
+        <v>5.178572443234387</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2816048327064209</v>
+        <v>0.9005640190330837</v>
       </c>
       <c r="C14">
-        <v>0.05247755133648013</v>
+        <v>0.1694133001092126</v>
       </c>
       <c r="D14">
-        <v>0.03284317805050563</v>
+        <v>0.04697227256618675</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9802452660613881</v>
+        <v>1.160352354902116</v>
       </c>
       <c r="G14">
-        <v>0.8256126062823057</v>
+        <v>1.046447315802226</v>
       </c>
       <c r="H14">
-        <v>0.8377449481367734</v>
+        <v>0.616278404629611</v>
       </c>
       <c r="I14">
-        <v>0.7179161676760586</v>
+        <v>0.6362412084545639</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3081172134220367</v>
+        <v>1.019766396592104</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.362570359115239</v>
+        <v>5.056957044914398</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2787197559569279</v>
+        <v>0.8909621219715405</v>
       </c>
       <c r="C15">
-        <v>0.05195086960605977</v>
+        <v>0.1676830064799333</v>
       </c>
       <c r="D15">
-        <v>0.03273702449931903</v>
+        <v>0.04679370918412218</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9782950350169415</v>
+        <v>1.150278572963984</v>
       </c>
       <c r="G15">
-        <v>0.8238378939713868</v>
+        <v>1.037336825427687</v>
       </c>
       <c r="H15">
-        <v>0.8373570050115262</v>
+        <v>0.6129106279576746</v>
       </c>
       <c r="I15">
-        <v>0.7173580428052944</v>
+        <v>0.6323858289154813</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3048604188167587</v>
+        <v>1.008979195389657</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.348867459697644</v>
+        <v>4.983299207511308</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2621863106109004</v>
+        <v>0.8359518916424804</v>
       </c>
       <c r="C16">
-        <v>0.04892834102184906</v>
+        <v>0.1577767752909125</v>
       </c>
       <c r="D16">
-        <v>0.03212525909869157</v>
+        <v>0.04575020831732246</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9672783131500893</v>
+        <v>1.093530231463532</v>
       </c>
       <c r="G16">
-        <v>0.8138113425397364</v>
+        <v>0.9861371039883693</v>
       </c>
       <c r="H16">
-        <v>0.8352422287904631</v>
+        <v>0.5940969791156334</v>
       </c>
       <c r="I16">
-        <v>0.7142660938675149</v>
+        <v>0.6108841297172418</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2861902413606572</v>
+        <v>0.9471837925956947</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.270585597070422</v>
+        <v>4.57279388015138</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2520436951929526</v>
+        <v>0.8022187905618523</v>
       </c>
       <c r="C17">
-        <v>0.0470702814920827</v>
+        <v>0.1517077468231776</v>
       </c>
       <c r="D17">
-        <v>0.03174691172713295</v>
+        <v>0.04509348592429774</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9606617455226996</v>
+        <v>1.05953634839716</v>
       </c>
       <c r="G17">
-        <v>0.8077881384325707</v>
+        <v>0.955568832951414</v>
       </c>
       <c r="H17">
-        <v>0.8340414815359622</v>
+        <v>0.5829645823284721</v>
       </c>
       <c r="I17">
-        <v>0.7124640559212096</v>
+        <v>0.5981898223961295</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2747309448907345</v>
+        <v>0.9092945615941233</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.222773673458235</v>
+        <v>4.330140135361702</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2462101050033425</v>
+        <v>0.7828216081502433</v>
       </c>
       <c r="C18">
-        <v>0.04600017544144919</v>
+        <v>0.1482198250662066</v>
       </c>
       <c r="D18">
-        <v>0.03152818473250818</v>
+        <v>0.04471019506513585</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9569080840421265</v>
+        <v>1.040264524315958</v>
       </c>
       <c r="G18">
-        <v>0.8043705508832772</v>
+        <v>0.9382740186762533</v>
       </c>
       <c r="H18">
-        <v>0.8333863039837439</v>
+        <v>0.5767028783429566</v>
       </c>
       <c r="I18">
-        <v>0.7114623190031821</v>
+        <v>0.5910589701683193</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2681378771782192</v>
+        <v>0.8875090883842063</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.195348803229635</v>
+        <v>4.193529304117149</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2442349938823156</v>
+        <v>0.7762549330844593</v>
       </c>
       <c r="C19">
-        <v>0.0456376165667649</v>
+        <v>0.1470393391696518</v>
       </c>
       <c r="D19">
-        <v>0.03145393746231662</v>
+        <v>0.04457950935605481</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9556460816328496</v>
+        <v>1.033785771232928</v>
       </c>
       <c r="G19">
-        <v>0.8032214381067888</v>
+        <v>0.9324656850969433</v>
       </c>
       <c r="H19">
-        <v>0.8331705587702771</v>
+        <v>0.5746062469204674</v>
       </c>
       <c r="I19">
-        <v>0.7111291083766673</v>
+        <v>0.5886728333153926</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2659052492898013</v>
+        <v>0.8801341411303554</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.186075915304258</v>
+        <v>4.147747651333574</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2531233788656664</v>
+        <v>0.805809195593497</v>
       </c>
       <c r="C20">
-        <v>0.04726822016293397</v>
+        <v>0.1523535085380985</v>
       </c>
       <c r="D20">
-        <v>0.03178730269826957</v>
+        <v>0.04516398175773872</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9613607047881345</v>
+        <v>1.063125576332524</v>
       </c>
       <c r="G20">
-        <v>0.8084244717495892</v>
+        <v>0.9587926794064572</v>
       </c>
       <c r="H20">
-        <v>0.8341656322177897</v>
+        <v>0.5841348210117445</v>
       </c>
       <c r="I20">
-        <v>0.712652287867293</v>
+        <v>0.5995232453042618</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2759510147465107</v>
+        <v>0.9133271617918979</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.227855488399342</v>
+        <v>4.355656323716971</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.282988296591725</v>
+        <v>0.9051686165051933</v>
       </c>
       <c r="C21">
-        <v>0.05273003259999598</v>
+        <v>0.1702431900277332</v>
       </c>
       <c r="D21">
-        <v>0.0328940203541066</v>
+        <v>0.04705751786665502</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9811832760455133</v>
+        <v>1.165201179298379</v>
       </c>
       <c r="G21">
-        <v>0.8264661747700757</v>
+        <v>1.050834773650166</v>
       </c>
       <c r="H21">
-        <v>0.8379328957892511</v>
+        <v>0.6179022986340925</v>
       </c>
       <c r="I21">
-        <v>0.7181856894361687</v>
+        <v>0.638100915707227</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3096788100183687</v>
+        <v>1.024939509710578</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.369145674187223</v>
+        <v>5.092501320919297</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3025055232419902</v>
+        <v>0.9701427142579746</v>
       </c>
       <c r="C22">
-        <v>0.05628696039076431</v>
+        <v>0.1819622918281283</v>
       </c>
       <c r="D22">
-        <v>0.03360723593487336</v>
+        <v>0.04823304061340394</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9946039989087723</v>
+        <v>1.23487900162803</v>
       </c>
       <c r="G22">
-        <v>0.8386774463912019</v>
+        <v>1.114045165593751</v>
       </c>
       <c r="H22">
-        <v>0.8407116357415134</v>
+        <v>0.6414342409398159</v>
       </c>
       <c r="I22">
-        <v>0.7221132370302783</v>
+        <v>0.6651012525947024</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3317014806761165</v>
+        <v>1.097942730286405</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.462209439755611</v>
+        <v>5.610288202219536</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2920890579669901</v>
+        <v>0.9354625671010979</v>
       </c>
       <c r="C23">
-        <v>0.05438973224138977</v>
+        <v>0.175705138530418</v>
       </c>
       <c r="D23">
-        <v>0.0332275116111731</v>
+        <v>0.04761203824406834</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9873983960979871</v>
+        <v>1.197393963314667</v>
       </c>
       <c r="G23">
-        <v>0.8321214761160149</v>
+        <v>1.080001923789311</v>
       </c>
       <c r="H23">
-        <v>0.839199558317091</v>
+        <v>0.6287299203923453</v>
       </c>
       <c r="I23">
-        <v>0.7199884766644544</v>
+        <v>0.6505125025192413</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3199495648623554</v>
+        <v>1.058975403539819</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.412470890922805</v>
+        <v>5.330047232471628</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2526352615255689</v>
+        <v>0.8041859845903332</v>
       </c>
       <c r="C24">
-        <v>0.04717873795311789</v>
+        <v>0.1520615558327876</v>
       </c>
       <c r="D24">
-        <v>0.03176904570707251</v>
+        <v>0.0451321283230115</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9610445486837733</v>
+        <v>1.061502044893302</v>
       </c>
       <c r="G24">
-        <v>0.8081366446028255</v>
+        <v>0.9573343136277686</v>
       </c>
       <c r="H24">
-        <v>0.8341093942252513</v>
+        <v>0.5836053269518828</v>
       </c>
       <c r="I24">
-        <v>0.7125670814530167</v>
+        <v>0.5989198865606227</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2753994366006509</v>
+        <v>0.9115040308855384</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.225557804698937</v>
+        <v>4.344111538049575</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2100861053138772</v>
+        <v>0.6627657679960066</v>
       </c>
       <c r="C25">
-        <v>0.03934711647532652</v>
+        <v>0.1266606954890932</v>
       </c>
       <c r="D25">
-        <v>0.0301534644506134</v>
+        <v>0.04224792349878115</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9346047141559524</v>
+        <v>0.925468395561083</v>
       </c>
       <c r="G25">
-        <v>0.7840523722920523</v>
+        <v>0.8358125716867733</v>
       </c>
       <c r="H25">
-        <v>0.8299740256247787</v>
+        <v>0.5402561231511669</v>
       </c>
       <c r="I25">
-        <v>0.7058893187736572</v>
+        <v>0.5496890107584491</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2272705328956732</v>
+        <v>0.752694858068736</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.026790146739458</v>
+        <v>3.391082371752063</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5587075183797765</v>
+        <v>2.434353284916881</v>
       </c>
       <c r="C2">
-        <v>0.1080093724618507</v>
+        <v>0.8007251324495428</v>
       </c>
       <c r="D2">
-        <v>0.03998934259200482</v>
+        <v>0.03663311565239979</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8323860678886916</v>
+        <v>0.5617882249136912</v>
       </c>
       <c r="G2">
-        <v>0.7535196601994159</v>
+        <v>0.4617296775315651</v>
       </c>
       <c r="H2">
-        <v>0.5120422921657592</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.517827423907697</v>
+        <v>0.01026545241385834</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3132713646638194</v>
       </c>
       <c r="K2">
-        <v>0.6358714188413472</v>
+        <v>0.2084933831055089</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.748849440974439</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.7333816987986879</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4881576354459582</v>
+        <v>2.117667786252923</v>
       </c>
       <c r="C3">
-        <v>0.09537782536777684</v>
+        <v>0.7010687800511164</v>
       </c>
       <c r="D3">
-        <v>0.03839052798914722</v>
+        <v>0.03286504087883912</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.772905793389306</v>
+        <v>0.5093565474290571</v>
       </c>
       <c r="G3">
-        <v>0.7013786980574395</v>
+        <v>0.4169727504051366</v>
       </c>
       <c r="H3">
-        <v>0.4948727554349261</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.498510692784663</v>
+        <v>0.00736230687624273</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2982534204461871</v>
       </c>
       <c r="K3">
-        <v>0.5566746559424587</v>
+        <v>0.2067511165300253</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.338315131576792</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.7339244837361392</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4447991948639611</v>
+        <v>1.922667250305864</v>
       </c>
       <c r="C4">
-        <v>0.08761818105077168</v>
+        <v>0.6402541339166987</v>
       </c>
       <c r="D4">
-        <v>0.03737940629985914</v>
+        <v>0.0305632686671089</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7379303883204216</v>
+        <v>0.4779645939251722</v>
       </c>
       <c r="G4">
-        <v>0.6709135015279344</v>
+        <v>0.3902218928403585</v>
       </c>
       <c r="H4">
-        <v>0.4851905161651473</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4876424066079181</v>
+        <v>0.005803827223067604</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2895060644462859</v>
       </c>
       <c r="K4">
-        <v>0.5080021693692487</v>
+        <v>0.2060675961085892</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.095304810730553</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.7351656574706738</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4271163331579686</v>
+        <v>1.841650510447977</v>
       </c>
       <c r="C5">
-        <v>0.08445394731089095</v>
+        <v>0.6161848783996788</v>
       </c>
       <c r="D5">
-        <v>0.03696050458810163</v>
+        <v>0.02968401418669231</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7240353397676031</v>
+        <v>0.4647092256983001</v>
       </c>
       <c r="G5">
-        <v>0.6588561361910052</v>
+        <v>0.3787979263394021</v>
       </c>
       <c r="H5">
-        <v>0.4814473776962416</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4834455187979714</v>
+        <v>0.005270488103656934</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2857009038812492</v>
       </c>
       <c r="K5">
-        <v>0.4881515741210478</v>
+        <v>0.2055042002552518</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.998163112111442</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.7364003522527227</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4241791546166382</v>
+        <v>1.826475941320439</v>
       </c>
       <c r="C6">
-        <v>0.08392836738116216</v>
+        <v>0.6129692595406482</v>
       </c>
       <c r="D6">
-        <v>0.03689054649044721</v>
+        <v>0.02960695427194082</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7217488256021483</v>
+        <v>0.4617272843995224</v>
       </c>
       <c r="G6">
-        <v>0.656874719543552</v>
+        <v>0.3760676617660152</v>
       </c>
       <c r="H6">
-        <v>0.4808376784404658</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4827621594796696</v>
+        <v>0.005253439287228545</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.284645196400561</v>
       </c>
       <c r="K6">
-        <v>0.484854281939505</v>
+        <v>0.2049567900664435</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.982136405962621</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.7372435052221959</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4445607790731003</v>
+        <v>1.916880428378903</v>
       </c>
       <c r="C7">
-        <v>0.0875755171736472</v>
+        <v>0.6420562486659094</v>
       </c>
       <c r="D7">
-        <v>0.03737378395769397</v>
+        <v>0.03073986852967181</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7377415855298679</v>
+        <v>0.475618964452508</v>
       </c>
       <c r="G7">
-        <v>0.6707494849326565</v>
+        <v>0.3877599752364205</v>
       </c>
       <c r="H7">
-        <v>0.4851392325581969</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4875848884679925</v>
+        <v>0.005968130274101924</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2882776017136308</v>
       </c>
       <c r="K7">
-        <v>0.5077345290651323</v>
+        <v>0.2048043456507855</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.093987559253392</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.7369058378098643</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5343880795518601</v>
+        <v>2.318977585303458</v>
       </c>
       <c r="C8">
-        <v>0.1036541100724548</v>
+        <v>0.7691187186524644</v>
       </c>
       <c r="D8">
-        <v>0.0394445304093054</v>
+        <v>0.03558377289500214</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8115369540512063</v>
+        <v>0.5406508898763676</v>
       </c>
       <c r="G8">
-        <v>0.7351995443814587</v>
+        <v>0.4430650647853582</v>
       </c>
       <c r="H8">
-        <v>0.5059350878073161</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5109500524463328</v>
+        <v>0.009412735093437874</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3064293575999955</v>
       </c>
       <c r="K8">
-        <v>0.6085709331140237</v>
+        <v>0.206147743131865</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.60516237220962</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.7357375403070634</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7103845230987531</v>
+        <v>3.112352796951825</v>
       </c>
       <c r="C9">
-        <v>0.1352061712792363</v>
+        <v>1.01812567789338</v>
       </c>
       <c r="D9">
-        <v>0.04324294353633817</v>
+        <v>0.04484900046741558</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9700723343891298</v>
+        <v>0.6792653267600173</v>
       </c>
       <c r="G9">
-        <v>0.875505932970583</v>
+        <v>0.5622842492027473</v>
       </c>
       <c r="H9">
-        <v>0.5542302538996466</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.565523141043812</v>
+        <v>0.01792068095395383</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3482638974630419</v>
       </c>
       <c r="K9">
-        <v>0.8061627642207299</v>
+        <v>0.2143724397587974</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.700912005468822</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.7378021502894541</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8398017807110705</v>
+        <v>3.691738190989895</v>
       </c>
       <c r="C10">
-        <v>0.1584696897659796</v>
+        <v>1.205495150132947</v>
       </c>
       <c r="D10">
-        <v>0.04582435483538205</v>
+        <v>0.05184337819804341</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.097448634159392</v>
+        <v>0.7856192291913686</v>
       </c>
       <c r="G10">
-        <v>0.9896656161939035</v>
+        <v>0.6539480638153918</v>
       </c>
       <c r="H10">
-        <v>0.5953870522977951</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6123565829270348</v>
+        <v>0.02579080988336369</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3814756322263406</v>
       </c>
       <c r="K10">
-        <v>0.9515082348317776</v>
+        <v>0.2222452192999285</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.600911769727162</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7454605289357232</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8987277920694794</v>
+        <v>3.9473110827916</v>
       </c>
       <c r="C11">
-        <v>0.1690823784392705</v>
+        <v>1.295334991192817</v>
       </c>
       <c r="D11">
-        <v>0.04693820857877995</v>
+        <v>0.05537549495661409</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.158421981210054</v>
+        <v>0.8318947731954154</v>
       </c>
       <c r="G11">
-        <v>1.044701032067792</v>
+        <v>0.6932219312610499</v>
       </c>
       <c r="H11">
-        <v>0.6156324314076187</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6355015567507181</v>
+        <v>0.03003819050929302</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3954393094387711</v>
       </c>
       <c r="K11">
-        <v>1.017703474715802</v>
+        <v>0.2244129008194591</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.042822938910064</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.753424333266608</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.921048626411789</v>
+        <v>4.048377814942739</v>
       </c>
       <c r="C12">
-        <v>0.1731058851040927</v>
+        <v>1.327607093285451</v>
       </c>
       <c r="D12">
-        <v>0.04734957273912244</v>
+        <v>0.05654535964658436</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.182013088247388</v>
+        <v>0.8515798793143006</v>
       </c>
       <c r="G12">
-        <v>1.066058512719593</v>
+        <v>0.7103678836377298</v>
       </c>
       <c r="H12">
-        <v>0.6235468947961778</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6445687280800954</v>
+        <v>0.03157700765826377</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4018842077814213</v>
       </c>
       <c r="K12">
-        <v>1.042780682247951</v>
+        <v>0.2264204049756131</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.216209735080511</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.7549481926077561</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.916241177334399</v>
+        <v>4.027468951331457</v>
       </c>
       <c r="C13">
-        <v>0.1722391413968154</v>
+        <v>1.320262556467981</v>
       </c>
       <c r="D13">
-        <v>0.04726147525087754</v>
+        <v>0.05625845679942643</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.17690881356306</v>
+        <v>0.8477155686917826</v>
       </c>
       <c r="G13">
-        <v>1.061434543867904</v>
+        <v>0.7070759725484521</v>
       </c>
       <c r="H13">
-        <v>0.6218308266856098</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.642601804255996</v>
+        <v>0.03121272038181022</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4006978439623339</v>
       </c>
       <c r="K13">
-        <v>1.037379436188672</v>
+        <v>0.2262018242804444</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.178572443234387</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7542679408576731</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9005640190330837</v>
+        <v>3.955989821223511</v>
       </c>
       <c r="C14">
-        <v>0.1694133001092126</v>
+        <v>1.297822508907814</v>
       </c>
       <c r="D14">
-        <v>0.04697227256618675</v>
+        <v>0.05545689816369759</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.160352354902116</v>
+        <v>0.8336733125189255</v>
       </c>
       <c r="G14">
-        <v>1.046447315802226</v>
+        <v>0.6948024230410965</v>
       </c>
       <c r="H14">
-        <v>0.616278404629611</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6362412084545639</v>
+        <v>0.03015042231511789</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3960550271654881</v>
       </c>
       <c r="K14">
-        <v>1.019766396592104</v>
+        <v>0.2246687185407055</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.056957044914398</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.7534002138128386</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8909621219715405</v>
+        <v>3.910523294206257</v>
       </c>
       <c r="C15">
-        <v>0.1676830064799333</v>
+        <v>1.284859875658526</v>
       </c>
       <c r="D15">
-        <v>0.04679370918412218</v>
+        <v>0.05503485416010534</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.150278572963984</v>
+        <v>0.8243447239536152</v>
       </c>
       <c r="G15">
-        <v>1.037336825427687</v>
+        <v>0.6865065994958854</v>
       </c>
       <c r="H15">
-        <v>0.6129106279576746</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6323858289154813</v>
+        <v>0.02957178622000267</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3928199404031432</v>
       </c>
       <c r="K15">
-        <v>1.008979195389657</v>
+        <v>0.223313614672783</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.983299207511308</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7535679731889644</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8359518916424804</v>
+        <v>3.66084834431507</v>
       </c>
       <c r="C16">
-        <v>0.1577767752909125</v>
+        <v>1.206033628008527</v>
       </c>
       <c r="D16">
-        <v>0.04575020831732246</v>
+        <v>0.0521865599335527</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.093530231463532</v>
+        <v>0.776228788585513</v>
       </c>
       <c r="G16">
-        <v>0.9861371039883693</v>
+        <v>0.6445987093580783</v>
       </c>
       <c r="H16">
-        <v>0.5940969791156334</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6108841297172418</v>
+        <v>0.0260036168632336</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3771405785567907</v>
       </c>
       <c r="K16">
-        <v>0.9471837925956947</v>
+        <v>0.2184910229154013</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.57279388015138</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.7505877314007563</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8022187905618523</v>
+        <v>3.507784738416149</v>
       </c>
       <c r="C17">
-        <v>0.1517077468231776</v>
+        <v>1.157915134572704</v>
       </c>
       <c r="D17">
-        <v>0.04509348592429774</v>
+        <v>0.05044322945350643</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.05953634839716</v>
+        <v>0.747147476668971</v>
       </c>
       <c r="G17">
-        <v>0.955568832951414</v>
+        <v>0.6193063386931499</v>
       </c>
       <c r="H17">
-        <v>0.5829645823284721</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5981898223961295</v>
+        <v>0.02393234400516953</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3677501246238961</v>
       </c>
       <c r="K17">
-        <v>0.9092945615941233</v>
+        <v>0.215717208320541</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.330140135361702</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.7490588069806563</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7828216081502433</v>
+        <v>3.424051097189192</v>
       </c>
       <c r="C18">
-        <v>0.1482198250662066</v>
+        <v>1.128386913852864</v>
       </c>
       <c r="D18">
-        <v>0.04471019506513585</v>
+        <v>0.0492682505049018</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.040264524315958</v>
+        <v>0.7325021467738395</v>
       </c>
       <c r="G18">
-        <v>0.9382740186762533</v>
+        <v>0.6069569907739805</v>
       </c>
       <c r="H18">
-        <v>0.5767028783429566</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5910589701683193</v>
+        <v>0.02259636158850764</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3634669382133211</v>
       </c>
       <c r="K18">
-        <v>0.8875090883842063</v>
+        <v>0.2152786466947774</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.193529304117149</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.7465913756270055</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7762549330844593</v>
+        <v>3.392406173188988</v>
       </c>
       <c r="C19">
-        <v>0.1470393391696518</v>
+        <v>1.119892996477091</v>
       </c>
       <c r="D19">
-        <v>0.04457950935605481</v>
+        <v>0.04900453570115104</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.033785771232928</v>
+        <v>0.7260797173402409</v>
       </c>
       <c r="G19">
-        <v>0.9324656850969433</v>
+        <v>0.6012150880910241</v>
       </c>
       <c r="H19">
-        <v>0.5746062469204674</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5886728333153926</v>
+        <v>0.02229053516674373</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3612292351761681</v>
       </c>
       <c r="K19">
-        <v>0.8801341411303554</v>
+        <v>0.2142982210361097</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.147747651333574</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.747081101536935</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.805809195593497</v>
+        <v>3.524411362735407</v>
       </c>
       <c r="C20">
-        <v>0.1523535085380985</v>
+        <v>1.162877028240672</v>
       </c>
       <c r="D20">
-        <v>0.04516398175773872</v>
+        <v>0.05061501280000158</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.063125576332524</v>
+        <v>0.7503788896888892</v>
       </c>
       <c r="G20">
-        <v>0.9587926794064572</v>
+        <v>0.6221448600237522</v>
       </c>
       <c r="H20">
-        <v>0.5841348210117445</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5995232453042618</v>
+        <v>0.0241337531920971</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3688228642478038</v>
       </c>
       <c r="K20">
-        <v>0.9133271617918979</v>
+        <v>0.2160913637512749</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.355656323716971</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7490768451558267</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9051686165051933</v>
+        <v>3.972166956523665</v>
       </c>
       <c r="C21">
-        <v>0.1702431900277332</v>
+        <v>1.306577147242251</v>
       </c>
       <c r="D21">
-        <v>0.04705751786665502</v>
+        <v>0.05588733957503678</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.165201179298379</v>
+        <v>0.8356250253454078</v>
       </c>
       <c r="G21">
-        <v>1.050834773650166</v>
+        <v>0.6960953264782432</v>
       </c>
       <c r="H21">
-        <v>0.6179022986340925</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.638100915707227</v>
+        <v>0.03064060725992768</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3962524601197117</v>
       </c>
       <c r="K21">
-        <v>1.024939509710578</v>
+        <v>0.2238935572577603</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.092501320919297</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.7555760799546221</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9701427142579746</v>
+        <v>4.271366596100563</v>
       </c>
       <c r="C22">
-        <v>0.1819622918281283</v>
+        <v>1.398610991212877</v>
       </c>
       <c r="D22">
-        <v>0.04823304061340394</v>
+        <v>0.0590998051075573</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.23487900162803</v>
+        <v>0.895627393809491</v>
       </c>
       <c r="G22">
-        <v>1.114045165593751</v>
+        <v>0.7488279250011942</v>
       </c>
       <c r="H22">
-        <v>0.6414342409398159</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6651012525947024</v>
+        <v>0.03507169712834823</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4164531640323617</v>
       </c>
       <c r="K22">
-        <v>1.097942730286405</v>
+        <v>0.2311874899086881</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.610288202219536</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.758399268070221</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9354625671010979</v>
+        <v>4.117443106888686</v>
       </c>
       <c r="C23">
-        <v>0.175705138530418</v>
+        <v>1.346789830000091</v>
       </c>
       <c r="D23">
-        <v>0.04761203824406834</v>
+        <v>0.05714864752861359</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.197393963314667</v>
+        <v>0.8660668496732882</v>
       </c>
       <c r="G23">
-        <v>1.080001923789311</v>
+        <v>0.7233224711239785</v>
       </c>
       <c r="H23">
-        <v>0.6287299203923453</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6505125025192413</v>
+        <v>0.0324679536572221</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4069974508493317</v>
       </c>
       <c r="K23">
-        <v>1.058975403539819</v>
+        <v>0.2287089892395784</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.330047232471628</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7544709062243413</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8041859845903332</v>
+        <v>3.525960667097252</v>
       </c>
       <c r="C24">
-        <v>0.1520615558327876</v>
+        <v>1.156542959778278</v>
       </c>
       <c r="D24">
-        <v>0.0451321283230115</v>
+        <v>0.05017004865573682</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.061502044893302</v>
+        <v>0.7530090102751785</v>
       </c>
       <c r="G24">
-        <v>0.9573343136277686</v>
+        <v>0.6252164814477226</v>
       </c>
       <c r="H24">
-        <v>0.5836053269518828</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5989198865606227</v>
+        <v>0.02369145519880966</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3705378592606223</v>
       </c>
       <c r="K24">
-        <v>0.9115040308855384</v>
+        <v>0.2182394155953844</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.344111538049575</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.745478102547608</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6627657679960066</v>
+        <v>2.889288784735299</v>
       </c>
       <c r="C25">
-        <v>0.1266606954890932</v>
+        <v>0.9541935730305227</v>
       </c>
       <c r="D25">
-        <v>0.04224792349878115</v>
+        <v>0.04267989613008183</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.925468395561083</v>
+        <v>0.6369157988914651</v>
       </c>
       <c r="G25">
-        <v>0.8358125716867733</v>
+        <v>0.5249874291951215</v>
       </c>
       <c r="H25">
-        <v>0.5402561231511669</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5496890107584491</v>
+        <v>0.01566018517149725</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3343143024915918</v>
       </c>
       <c r="K25">
-        <v>0.752694858068736</v>
+        <v>0.2094866091247205</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.391082371752063</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7397468334423678</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.434353284916881</v>
+        <v>2.344586893956091</v>
       </c>
       <c r="C2">
-        <v>0.8007251324495428</v>
+        <v>0.8292084025108579</v>
       </c>
       <c r="D2">
-        <v>0.03663311565239979</v>
+        <v>0.04081559648997768</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5617882249136912</v>
+        <v>0.5274719291126218</v>
       </c>
       <c r="G2">
-        <v>0.4617296775315651</v>
+        <v>0.4088474348412205</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01026545241385834</v>
+        <v>0.009095908516393969</v>
       </c>
       <c r="J2">
-        <v>0.3132713646638194</v>
+        <v>0.3445332306932869</v>
       </c>
       <c r="K2">
-        <v>0.2084933831055089</v>
+        <v>0.1906952849503973</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1276012211963149</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03562461172341358</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7333816987986879</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7734363603449523</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.117667786252923</v>
+        <v>2.04836584349124</v>
       </c>
       <c r="C3">
-        <v>0.7010687800511164</v>
+        <v>0.7217869650670536</v>
       </c>
       <c r="D3">
-        <v>0.03286504087883912</v>
+        <v>0.0361195225066453</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5093565474290571</v>
+        <v>0.4825709958692102</v>
       </c>
       <c r="G3">
-        <v>0.4169727504051366</v>
+        <v>0.3711130451255258</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.00736230687624273</v>
+        <v>0.006735580460544899</v>
       </c>
       <c r="J3">
-        <v>0.2982534204461871</v>
+        <v>0.3314559164392534</v>
       </c>
       <c r="K3">
-        <v>0.2067511165300253</v>
+        <v>0.1918784243229226</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1326140346152762</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03200908488837406</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7339244837361392</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7636967610974139</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.922667250305864</v>
+        <v>1.865478490141328</v>
       </c>
       <c r="C4">
-        <v>0.6402541339166987</v>
+        <v>0.6563205696515979</v>
       </c>
       <c r="D4">
-        <v>0.0305632686671089</v>
+        <v>0.03326026756150213</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4779645939251722</v>
+        <v>0.4555421167637377</v>
       </c>
       <c r="G4">
-        <v>0.3902218928403585</v>
+        <v>0.3485628819604472</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.005803827223067604</v>
+        <v>0.005458696263660023</v>
       </c>
       <c r="J4">
-        <v>0.2895060644462859</v>
+        <v>0.323564566047267</v>
       </c>
       <c r="K4">
-        <v>0.2060675961085892</v>
+        <v>0.1928526891506834</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1357933455026128</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03038679822434354</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7351656574706738</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7587206928023491</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.841650510447977</v>
+        <v>1.789348622520038</v>
       </c>
       <c r="C5">
-        <v>0.6161848783996788</v>
+        <v>0.6303865463150089</v>
       </c>
       <c r="D5">
-        <v>0.02968401418669231</v>
+        <v>0.03215797479872151</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4647092256983001</v>
+        <v>0.4440373024336424</v>
       </c>
       <c r="G5">
-        <v>0.3787979263394021</v>
+        <v>0.3388712354026495</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.005270488103656934</v>
+        <v>0.005041874625284493</v>
       </c>
       <c r="J5">
-        <v>0.2857009038812492</v>
+        <v>0.3200373984629579</v>
       </c>
       <c r="K5">
-        <v>0.2055042002552518</v>
+        <v>0.1929675798126489</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1369357726741391</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02979154232579972</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7364003522527227</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7574716988939301</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.826475941320439</v>
+        <v>1.775050166476177</v>
       </c>
       <c r="C6">
-        <v>0.6129692595406482</v>
+        <v>0.6268643301228281</v>
       </c>
       <c r="D6">
-        <v>0.02960695427194082</v>
+        <v>0.03204542416696654</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4617272843995224</v>
+        <v>0.4413846154107262</v>
       </c>
       <c r="G6">
-        <v>0.3760676617660152</v>
+        <v>0.3364854085852471</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.005253439287228545</v>
+        <v>0.005061631891731366</v>
       </c>
       <c r="J6">
-        <v>0.284645196400561</v>
+        <v>0.3190344113505716</v>
       </c>
       <c r="K6">
-        <v>0.2049567900664435</v>
+        <v>0.1925748780186183</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1369099624498773</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02960157814089293</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7372435052221959</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7579349767292882</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.916880428378903</v>
+        <v>1.858002232942283</v>
       </c>
       <c r="C7">
-        <v>0.6420562486659094</v>
+        <v>0.6567083188565732</v>
       </c>
       <c r="D7">
-        <v>0.03073986852967181</v>
+        <v>0.03357434050851538</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.475618964452508</v>
+        <v>0.4519364452527341</v>
       </c>
       <c r="G7">
-        <v>0.3877599752364205</v>
+        <v>0.349176038753555</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.005968130274101924</v>
+        <v>0.005662790140199547</v>
       </c>
       <c r="J7">
-        <v>0.2882776017136308</v>
+        <v>0.3169950534918939</v>
       </c>
       <c r="K7">
-        <v>0.2048043456507855</v>
+        <v>0.1912497822483523</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1349907329973803</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02996951482547594</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7369058378098643</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.761327068577323</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.318977585303458</v>
+        <v>2.230097667976622</v>
       </c>
       <c r="C8">
-        <v>0.7691187186524644</v>
+        <v>0.7902211524259712</v>
       </c>
       <c r="D8">
-        <v>0.03558377289500214</v>
+        <v>0.03991408194487178</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5406508898763676</v>
+        <v>0.5044962381893683</v>
       </c>
       <c r="G8">
-        <v>0.4430650647853582</v>
+        <v>0.4025338907719771</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.009412735093437874</v>
+        <v>0.00846714830390205</v>
       </c>
       <c r="J8">
-        <v>0.3064293575999955</v>
+        <v>0.3208632914092817</v>
       </c>
       <c r="K8">
-        <v>0.206147743131865</v>
+        <v>0.1880249502280371</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1279063289988578</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03333871890445295</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7357375403070634</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7751836137561838</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.112352796951825</v>
+        <v>2.967424527737876</v>
       </c>
       <c r="C9">
-        <v>1.01812567789338</v>
+        <v>1.057788978227876</v>
       </c>
       <c r="D9">
-        <v>0.04484900046741558</v>
+        <v>0.05170459856953613</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6792653267600173</v>
+        <v>0.6212330976218112</v>
       </c>
       <c r="G9">
-        <v>0.5622842492027473</v>
+        <v>0.506130038772568</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01792068095395383</v>
+        <v>0.01520201984834024</v>
       </c>
       <c r="J9">
-        <v>0.3482638974630419</v>
+        <v>0.3508048556906829</v>
       </c>
       <c r="K9">
-        <v>0.2143724397587974</v>
+        <v>0.18756121849162</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.116615703637553</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04588082115189351</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7378021502894541</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8042910062356583</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.691738190989895</v>
+        <v>3.491054683268885</v>
       </c>
       <c r="C10">
-        <v>1.205495150132947</v>
+        <v>1.250716495875338</v>
       </c>
       <c r="D10">
-        <v>0.05184337819804341</v>
+        <v>0.06148797784270954</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7856192291913686</v>
+        <v>0.7016605137470719</v>
       </c>
       <c r="G10">
-        <v>0.6539480638153918</v>
+        <v>0.6032698504041463</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02579080988336369</v>
+        <v>0.02133579866986235</v>
       </c>
       <c r="J10">
-        <v>0.3814756322263406</v>
+        <v>0.3434610776870812</v>
       </c>
       <c r="K10">
-        <v>0.2222452192999285</v>
+        <v>0.1856581818212852</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1077387473349631</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05696443969085507</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7454605289357232</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.8377847071921138</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.9473110827916</v>
+        <v>3.699938381293009</v>
       </c>
       <c r="C11">
-        <v>1.295334991192817</v>
+        <v>1.32796446786773</v>
       </c>
       <c r="D11">
-        <v>0.05537549495661409</v>
+        <v>0.06790334043530777</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8318947731954154</v>
+        <v>0.7214672942668443</v>
       </c>
       <c r="G11">
-        <v>0.6932219312610499</v>
+        <v>0.6770827352458468</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03003819050929302</v>
+        <v>0.02462618449276643</v>
       </c>
       <c r="J11">
-        <v>0.3954393094387711</v>
+        <v>0.2913410116340884</v>
       </c>
       <c r="K11">
-        <v>0.2244129008194591</v>
+        <v>0.1789540449930875</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1017850660636626</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05998595434338583</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.753424333266608</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.8679683692418223</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.048377814942739</v>
+        <v>3.780218918945081</v>
       </c>
       <c r="C12">
-        <v>1.327607093285451</v>
+        <v>1.353517456479949</v>
       </c>
       <c r="D12">
-        <v>0.05654535964658436</v>
+        <v>0.07037626365114136</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8515798793143006</v>
+        <v>0.7290454999758538</v>
       </c>
       <c r="G12">
-        <v>0.7103678836377298</v>
+        <v>0.7117262740975292</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03157700765826377</v>
+        <v>0.02571406364669837</v>
       </c>
       <c r="J12">
-        <v>0.4018842077814213</v>
+        <v>0.2686097967611403</v>
       </c>
       <c r="K12">
-        <v>0.2264204049756131</v>
+        <v>0.1768346790069373</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0997285370894474</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06133038938431667</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7549481926077561</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8791635153549038</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.027468951331457</v>
+        <v>3.7638639461087</v>
       </c>
       <c r="C13">
-        <v>1.320262556467981</v>
+        <v>1.347710420418196</v>
       </c>
       <c r="D13">
-        <v>0.05625845679942643</v>
+        <v>0.06979517928547097</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8477155686917826</v>
+        <v>0.7278360055351953</v>
       </c>
       <c r="G13">
-        <v>0.7070759725484521</v>
+        <v>0.704436761565276</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03121272038181022</v>
+        <v>0.02543774226109985</v>
       </c>
       <c r="J13">
-        <v>0.4006978439623339</v>
+        <v>0.2737845686144738</v>
       </c>
       <c r="K13">
-        <v>0.2262018242804444</v>
+        <v>0.1774895892975223</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1002356488745555</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.06112503685024606</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7542679408576731</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.87629153450915</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.955989821223511</v>
+        <v>3.706943414516331</v>
       </c>
       <c r="C14">
-        <v>1.297822508907814</v>
+        <v>1.329939326564954</v>
       </c>
       <c r="D14">
-        <v>0.05545689816369759</v>
+        <v>0.06808607434978597</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8336733125189255</v>
+        <v>0.7222727075683366</v>
       </c>
       <c r="G14">
-        <v>0.6948024230410965</v>
+        <v>0.6799996992670856</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.03015042231511789</v>
+        <v>0.02469744086453307</v>
       </c>
       <c r="J14">
-        <v>0.3960550271654881</v>
+        <v>0.2895997496648448</v>
       </c>
       <c r="K14">
-        <v>0.2246687185407055</v>
+        <v>0.1788651554477205</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1016438281380552</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.06013243812730451</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7534002138128386</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8686931853152089</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.910523294206257</v>
+        <v>3.670115829571785</v>
       </c>
       <c r="C15">
-        <v>1.284859875658526</v>
+        <v>1.319579239689176</v>
       </c>
       <c r="D15">
-        <v>0.05503485416010534</v>
+        <v>0.06714333933401662</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8243447239536152</v>
+        <v>0.7179566222348939</v>
       </c>
       <c r="G15">
-        <v>0.6865065994958854</v>
+        <v>0.6649093792749312</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.02957178622000267</v>
+        <v>0.02433299629903818</v>
       </c>
       <c r="J15">
-        <v>0.3928199404031432</v>
+        <v>0.2985394909713648</v>
       </c>
       <c r="K15">
-        <v>0.223313614672783</v>
+        <v>0.1792909653801331</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1023701985213403</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0593519638887301</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7535679731889644</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.865004852622917</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.66084834431507</v>
+        <v>3.463631776860439</v>
       </c>
       <c r="C16">
-        <v>1.206033628008527</v>
+        <v>1.251844804365987</v>
       </c>
       <c r="D16">
-        <v>0.0521865599335527</v>
+        <v>0.06170701838531301</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.776228788585513</v>
+        <v>0.6942801887745418</v>
       </c>
       <c r="G16">
-        <v>0.6445987093580783</v>
+        <v>0.5927045783516149</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0260036168632336</v>
+        <v>0.02177735508626988</v>
       </c>
       <c r="J16">
-        <v>0.3771405785567907</v>
+        <v>0.3432945358349286</v>
       </c>
       <c r="K16">
-        <v>0.2184910229154013</v>
+        <v>0.1829852548296032</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1070285964756685</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05549812410264465</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7505877314007563</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.842190360349278</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.507784738416149</v>
+        <v>3.332226251532802</v>
       </c>
       <c r="C17">
-        <v>1.157915134572704</v>
+        <v>1.207223178862989</v>
       </c>
       <c r="D17">
-        <v>0.05044322945350643</v>
+        <v>0.05873479392951708</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.747147476668971</v>
+        <v>0.6768985077217167</v>
       </c>
       <c r="G17">
-        <v>0.6193063386931499</v>
+        <v>0.556062326936285</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.02393234400516953</v>
+        <v>0.02026268052164237</v>
       </c>
       <c r="J17">
-        <v>0.3677501246238961</v>
+        <v>0.3618021287746274</v>
       </c>
       <c r="K17">
-        <v>0.215717208320541</v>
+        <v>0.184395436969826</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.109634392281432</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05286813218880226</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7490588069806563</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8307863524088788</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.424051097189192</v>
+        <v>3.259032212827151</v>
       </c>
       <c r="C18">
-        <v>1.128386913852864</v>
+        <v>1.178525367795942</v>
       </c>
       <c r="D18">
-        <v>0.0492682505049018</v>
+        <v>0.05696683351249732</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7325021467738395</v>
+        <v>0.6676743448170157</v>
       </c>
       <c r="G18">
-        <v>0.6069569907739805</v>
+        <v>0.53944091164486</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.02259636158850764</v>
+        <v>0.01916597286353383</v>
       </c>
       <c r="J18">
-        <v>0.3634669382133211</v>
+        <v>0.3697042066401224</v>
       </c>
       <c r="K18">
-        <v>0.2152786466947774</v>
+        <v>0.1858318177052531</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1113786674662975</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05163773419622331</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7465913756270055</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8232762647923693</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.392406173188988</v>
+        <v>3.230850477253966</v>
       </c>
       <c r="C19">
-        <v>1.119892996477091</v>
+        <v>1.170131985579133</v>
       </c>
       <c r="D19">
-        <v>0.04900453570115104</v>
+        <v>0.05652876343654611</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7260797173402409</v>
+        <v>0.6630063417745617</v>
       </c>
       <c r="G19">
-        <v>0.6012150880910241</v>
+        <v>0.5327773415123289</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02229053516674373</v>
+        <v>0.01898211963994001</v>
       </c>
       <c r="J19">
-        <v>0.3612292351761681</v>
+        <v>0.3709928334445607</v>
       </c>
       <c r="K19">
-        <v>0.2142982210361097</v>
+        <v>0.1855467276713334</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1116856682043128</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05092368089020027</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.747081101536935</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.8222953163215578</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.524411362735407</v>
+        <v>3.346706035889383</v>
       </c>
       <c r="C20">
-        <v>1.162877028240672</v>
+        <v>1.211933286142141</v>
       </c>
       <c r="D20">
-        <v>0.05061501280000158</v>
+        <v>0.05902385927106479</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7503788896888892</v>
+        <v>0.6789939918269425</v>
       </c>
       <c r="G20">
-        <v>0.6221448600237522</v>
+        <v>0.559840880139177</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0241337531920971</v>
+        <v>0.02040248142523549</v>
       </c>
       <c r="J20">
-        <v>0.3688228642478038</v>
+        <v>0.3602806770213505</v>
       </c>
       <c r="K20">
-        <v>0.2160913637512749</v>
+        <v>0.1843500972113823</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1093937104321085</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05318630709055583</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7490768451558267</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.8317621022553396</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.972166956523665</v>
+        <v>3.711827316672384</v>
       </c>
       <c r="C21">
-        <v>1.306577147242251</v>
+        <v>1.332047174046693</v>
       </c>
       <c r="D21">
-        <v>0.05588733957503678</v>
+        <v>0.0693537509489488</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8356250253454078</v>
+        <v>0.7169015559596374</v>
       </c>
       <c r="G21">
-        <v>0.6960953264782432</v>
+        <v>0.6962949187858243</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03064060725992768</v>
+        <v>0.02510410408517494</v>
       </c>
       <c r="J21">
-        <v>0.3962524601197117</v>
+        <v>0.2687421021092575</v>
       </c>
       <c r="K21">
-        <v>0.2238935572577603</v>
+        <v>0.1758848392576624</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1003595768266621</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.059316621351865</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7555760799546221</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.8765842244147564</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.271366596100563</v>
+        <v>3.952048088058291</v>
       </c>
       <c r="C22">
-        <v>1.398610991212877</v>
+        <v>1.406134714153609</v>
       </c>
       <c r="D22">
-        <v>0.0590998051075573</v>
+        <v>0.07623183854356341</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.895627393809491</v>
+        <v>0.7428747148845503</v>
       </c>
       <c r="G22">
-        <v>0.7488279250011942</v>
+        <v>0.7978486756833405</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.03507169712834823</v>
+        <v>0.02813778317586646</v>
       </c>
       <c r="J22">
-        <v>0.4164531640323617</v>
+        <v>0.2146730999214483</v>
       </c>
       <c r="K22">
-        <v>0.2311874899086881</v>
+        <v>0.1714214317244647</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09505646979091686</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06400280095266098</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.758399268070221</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.9066520655016319</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.117443106888686</v>
+        <v>3.83479566700629</v>
       </c>
       <c r="C23">
-        <v>1.346789830000091</v>
+        <v>1.367824730622203</v>
       </c>
       <c r="D23">
-        <v>0.05714864752861359</v>
+        <v>0.07187170464010961</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8660668496732882</v>
+        <v>0.734986895317931</v>
       </c>
       <c r="G23">
-        <v>0.7233224711239785</v>
+        <v>0.7373136395790993</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0324679536572221</v>
+        <v>0.0262561413770479</v>
       </c>
       <c r="J23">
-        <v>0.4069974508493317</v>
+        <v>0.2537838539577848</v>
       </c>
       <c r="K23">
-        <v>0.2287089892395784</v>
+        <v>0.1761012950092606</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09862419292636027</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06248290105621024</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7544709062243413</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.885154879454916</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.525960667097252</v>
+        <v>3.348738484560897</v>
       </c>
       <c r="C24">
-        <v>1.156542959778278</v>
+        <v>1.205683895049276</v>
       </c>
       <c r="D24">
-        <v>0.05017004865573682</v>
+        <v>0.05850662118604788</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7530090102751785</v>
+        <v>0.6818195512423273</v>
       </c>
       <c r="G24">
-        <v>0.6252164814477226</v>
+        <v>0.5621444534019702</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.02369145519880966</v>
+        <v>0.01987142634684513</v>
       </c>
       <c r="J24">
-        <v>0.3705378592606223</v>
+        <v>0.3629478876674312</v>
       </c>
       <c r="K24">
-        <v>0.2182394155953844</v>
+        <v>0.186340157036021</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1102205940318761</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05382977687892065</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.745478102547608</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.8274143903557842</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.889288784735299</v>
+        <v>2.763274866307654</v>
       </c>
       <c r="C25">
-        <v>0.9541935730305227</v>
+        <v>0.9908235135542611</v>
       </c>
       <c r="D25">
-        <v>0.04267989613008183</v>
+        <v>0.04865268189792715</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6369157988914651</v>
+        <v>0.5873624636281605</v>
       </c>
       <c r="G25">
-        <v>0.5249874291951215</v>
+        <v>0.469298413851817</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01566018517149725</v>
+        <v>0.01359357374224412</v>
       </c>
       <c r="J25">
-        <v>0.3343143024915918</v>
+        <v>0.3480611115228527</v>
       </c>
       <c r="K25">
-        <v>0.2094866091247205</v>
+        <v>0.1861250423018106</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1190505943559792</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04148087426830749</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7397468334423678</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7978451051328221</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
